--- a/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
+++ b/misc/One_Drought_User_Interface_w_NOAA_Index.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wtravis\Desktop\drought_decision_model\misc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="465" windowWidth="31260" windowHeight="23055" tabRatio="653" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="653" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="senseInfo" sheetId="12" state="hidden" r:id="rId1"/>
@@ -107,7 +102,7 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -123,7 +118,7 @@
     <author>Jeffrey E. Tranel</author>
   </authors>
   <commentList>
-    <comment ref="AA16" authorId="0" shapeId="0">
+    <comment ref="AA16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="1" shapeId="0">
+    <comment ref="C26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1197,19 +1192,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="13">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="170" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -2191,8 +2186,8 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -2203,7 +2198,7 @@
     <xf numFmtId="0" fontId="25" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2261,7 +2256,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -2277,7 +2272,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2287,16 +2282,16 @@
     <xf numFmtId="38" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="8" fontId="12" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="12" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -2340,7 +2335,7 @@
     <xf numFmtId="40" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -2470,8 +2465,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -2488,10 +2483,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2509,9 +2504,9 @@
     <xf numFmtId="38" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2528,9 +2523,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2545,7 +2540,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="13" borderId="14" xfId="5" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="13" borderId="14" xfId="5" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -2555,7 +2550,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="21" fillId="13" borderId="14" xfId="5" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="13" borderId="14" xfId="5" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -2589,12 +2584,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="25" fillId="15" borderId="16" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2614,7 +2609,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="6" fontId="12" fillId="18" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="18" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2640,16 +2635,16 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="9" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="9" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1"/>
@@ -2667,14 +2662,14 @@
     <xf numFmtId="9" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="18" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="18" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="40" fontId="9" fillId="20" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2697,7 +2692,7 @@
     <xf numFmtId="0" fontId="34" fillId="21" borderId="4" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="9" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2729,8 +2724,8 @@
     <xf numFmtId="38" fontId="9" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="38" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="38" fontId="16" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="8" fontId="19" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="44" fontId="19" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="19" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="19" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2746,11 +2741,11 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="13" borderId="27" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="13" borderId="27" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="13" borderId="26" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="13" borderId="26" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -2768,14 +2763,14 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2822,10 +2817,10 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="19" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="19" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="19" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="19" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="19" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="19" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="40" fontId="29" fillId="15" borderId="22" xfId="13" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="38" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="38" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2929,7 +2924,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="19" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="9" fillId="19" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2976,13 +2971,13 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2997,9 +2992,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="25" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="25" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3025,7 +3020,7 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3033,36 +3028,36 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="25" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="25" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="25" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="7" fillId="25" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="25" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="25" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="13" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
     <xf numFmtId="40" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3284,10 +3279,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12613013600572701"/>
-          <c:y val="3.0036249279815599E-2"/>
-          <c:w val="0.55191418821807403"/>
-          <c:h val="0.78511739005185299"/>
+          <c:x val="0.126130136005727"/>
+          <c:y val="0.0300362492798156"/>
+          <c:w val="0.551914188218074"/>
+          <c:h val="0.785117390051853"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3332,25 +3327,25 @@
             <c:numRef>
               <c:f>UI!$R$58:$R$63</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.254167737505</c:v>
+                  <c:v>31069.2541677375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31335.673022225852</c:v>
+                  <c:v>31335.67302222585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.376418391439</c:v>
+                  <c:v>31604.37641839144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.383946179147</c:v>
+                  <c:v>31875.38394617915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3401,25 +3396,25 @@
             <c:numRef>
               <c:f>UI!$S$58:$S$63</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46912.835948011139</c:v>
+                  <c:v>46912.83594801114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.644068254198</c:v>
+                  <c:v>31069.6440682542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31336.066266139478</c:v>
+                  <c:v>31336.06626613948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.773034371625</c:v>
+                  <c:v>31604.77303437162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.783963141363</c:v>
+                  <c:v>31875.78396314136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,25 +3465,25 @@
             <c:numRef>
               <c:f>UI!$T$58:$T$63</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33275.741692702402</c:v>
+                  <c:v>-33275.7416927024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28504.443289974348</c:v>
+                  <c:v>28504.44328997435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29775.456416274305</c:v>
+                  <c:v>29775.4564162743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30751.169868822304</c:v>
+                  <c:v>30751.1698688223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31014.861150447457</c:v>
+                  <c:v>31014.86115044746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3539,19 +3534,19 @@
             <c:numRef>
               <c:f>UI!$U$58:$U$63</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-28067.820596812002</c:v>
+                  <c:v>-28067.820596812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28842.958161207225</c:v>
+                  <c:v>28842.95816120723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30129.065665615453</c:v>
+                  <c:v>30129.06566561545</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30822.20384685486</c:v>
@@ -3608,25 +3603,25 @@
             <c:numRef>
               <c:f>UI!$V$58:$V$63</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219.6311399850765</c:v>
+                  <c:v>2219.631139985076</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37906.03097701045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38231.075192638316</c:v>
+                  <c:v>38231.07519263832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38558.906662415189</c:v>
+                  <c:v>38558.90666241519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3677,25 +3672,25 @@
             <c:numRef>
               <c:f>UI!$W$58:$W$63</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1263.3811399850765</c:v>
+                  <c:v>1263.381139985077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1274.2146332604489</c:v>
+                  <c:v>1274.214633260449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1285.1410237406571</c:v>
+                  <c:v>1285.141023740657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1296.1611080192333</c:v>
+                  <c:v>1296.161108019233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,12 +3710,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403950336"/>
-        <c:axId val="403951904"/>
+        <c:axId val="-2143158664"/>
+        <c:axId val="-2143164584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="403950336"/>
+        <c:axId val="-2143158664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3746,7 +3742,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37471199931530302"/>
+              <c:x val="0.374711999315303"/>
               <c:y val="0.882226810063376"/>
             </c:manualLayout>
           </c:layout>
@@ -3766,7 +3762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403951904"/>
+        <c:crossAx val="-2143164584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3774,11 +3770,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403951904"/>
+        <c:axId val="-2143164584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="150000"/>
-          <c:min val="-150000"/>
+          <c:max val="150000.0"/>
+          <c:min val="-150000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3805,7 +3801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403950336"/>
+        <c:crossAx val="-2143158664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3816,9 +3812,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.71928446671438795"/>
-          <c:y val="0.24009530439792601"/>
-          <c:w val="0.23622018715051901"/>
+          <c:x val="0.719284466714388"/>
+          <c:y val="0.240095304397926"/>
+          <c:w val="0.236220187150519"/>
           <c:h val="0.367370366813904"/>
         </c:manualLayout>
       </c:layout>
@@ -3837,7 +3833,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3902,25 +3898,25 @@
             <c:numRef>
               <c:f>UI!$Q$14:$Q$19</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542151.01341899997</c:v>
+                  <c:v>542151.013419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563464.52177806792</c:v>
+                  <c:v>563464.5217780679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584960.79347131483</c:v>
+                  <c:v>584960.7934713148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606641.39569433138</c:v>
+                  <c:v>606641.3956943313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628507.90908141027</c:v>
+                  <c:v>628507.9090814102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3971,25 +3967,25 @@
             <c:numRef>
               <c:f>UI!$R$14:$R$19</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542182.20546033559</c:v>
+                  <c:v>542182.2054603356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563495.98129115801</c:v>
+                  <c:v>563495.981291158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584992.52274972969</c:v>
+                  <c:v>584992.5227497297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606673.39705130865</c:v>
+                  <c:v>606673.3970513086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628540.18485002359</c:v>
+                  <c:v>628540.1848500236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4040,7 +4036,7 @@
             <c:numRef>
               <c:f>UI!$S$14:$S$19</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
@@ -4052,13 +4048,13 @@
                   <c:v>496278.30640422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516704.26950578415</c:v>
+                  <c:v>516704.2695057841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537799.57203579624</c:v>
+                  <c:v>537799.5720357962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>559075.76678500324</c:v>
+                  <c:v>559075.7667850032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4109,7 +4105,7 @@
             <c:numRef>
               <c:f>UI!$T$14:$T$19</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
@@ -4118,16 +4114,16 @@
                   <c:v>481932.179403188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501718.44870177616</c:v>
+                  <c:v>501718.4487017762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>522386.98774838838</c:v>
+                  <c:v>522386.9877483884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543531.01958733075</c:v>
+                  <c:v>543531.0195873307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>564856.36149929219</c:v>
+                  <c:v>564856.3614992921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4178,25 +4174,25 @@
             <c:numRef>
               <c:f>UI!$U$14:$U$19</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577570.49119880609</c:v>
+                  <c:v>577570.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579093.15816083585</c:v>
+                  <c:v>579093.1581608358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>605096.69541106501</c:v>
+                  <c:v>605096.695411065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>631323.21299321484</c:v>
+                  <c:v>631323.2129932148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>657774.62296363164</c:v>
+                  <c:v>657774.6229636316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4247,25 +4243,25 @@
             <c:numRef>
               <c:f>UI!$V$14:$V$19</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501070.49119880609</c:v>
+                  <c:v>501070.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501937.17066083587</c:v>
+                  <c:v>501937.1706608359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>502811.28189925256</c:v>
+                  <c:v>502811.2818992526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503692.88864153862</c:v>
+                  <c:v>503692.8886415386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>504582.05516163982</c:v>
+                  <c:v>504582.0551616398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4285,12 +4281,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403949944"/>
-        <c:axId val="403949552"/>
+        <c:axId val="-2143225912"/>
+        <c:axId val="-2143231560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="403949944"/>
+        <c:axId val="-2143225912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4316,8 +4313,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39784415862044398"/>
-              <c:y val="0.85194383834550802"/>
+              <c:x val="0.397844158620444"/>
+              <c:y val="0.851943838345508"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4336,7 +4333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403949552"/>
+        <c:crossAx val="-2143231560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4344,10 +4341,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403949552"/>
+        <c:axId val="-2143231560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="350000"/>
+          <c:min val="350000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4377,17 +4374,17 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.49824348879467E-2"/>
-              <c:y val="0.25444608321240803"/>
+              <c:x val="0.0149824348879467"/>
+              <c:y val="0.254446083212408"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0;[Red]\-#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403949944"/>
+        <c:crossAx val="-2143225912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4409,7 +4406,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4449,8 +4446,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63469334001094402"/>
-          <c:y val="3.2786894650802402E-2"/>
+          <c:x val="0.634693340010944"/>
+          <c:y val="0.0327868946508024"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -4462,10 +4459,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14828264841453101"/>
-          <c:y val="5.3330766986723802E-2"/>
-          <c:w val="0.48929735057496698"/>
-          <c:h val="0.73024847761814005"/>
+          <c:x val="0.148282648414531"/>
+          <c:y val="0.0533307669867238"/>
+          <c:w val="0.489297350574967"/>
+          <c:h val="0.73024847761814"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4510,25 +4507,25 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$Y$57:$Y$62</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542151.01341899997</c:v>
+                  <c:v>542151.013419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563464.52177806792</c:v>
+                  <c:v>563464.5217780679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584960.79347131483</c:v>
+                  <c:v>584960.7934713148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606641.39569433138</c:v>
+                  <c:v>606641.3956943313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628507.90908141027</c:v>
+                  <c:v>628507.9090814102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4588,25 +4585,25 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$Z$57:$Z$62</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>542182.20546033559</c:v>
+                  <c:v>542182.2054603356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563495.98129115801</c:v>
+                  <c:v>563495.981291158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>584992.52274972969</c:v>
+                  <c:v>584992.5227497297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606673.39705130865</c:v>
+                  <c:v>606673.3970513086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628540.18485002359</c:v>
+                  <c:v>628540.1848500236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4666,7 +4663,7 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$AA$57:$AA$62</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
@@ -4678,13 +4675,13 @@
                   <c:v>496278.30640422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516704.26950578415</c:v>
+                  <c:v>516704.2695057841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537799.57203579624</c:v>
+                  <c:v>537799.5720357962</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>559075.76678500324</c:v>
+                  <c:v>559075.7667850032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4744,7 +4741,7 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$AB$57:$AB$62</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
@@ -4753,16 +4750,16 @@
                   <c:v>481932.179403188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501718.44870177616</c:v>
+                  <c:v>501718.4487017762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>522386.98774838838</c:v>
+                  <c:v>522386.9877483884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>543531.01958733075</c:v>
+                  <c:v>543531.0195873307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>564856.36149929219</c:v>
+                  <c:v>564856.3614992921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4822,25 +4819,25 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$AC$57:$AC$62</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577570.49119880609</c:v>
+                  <c:v>577570.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579093.15816083585</c:v>
+                  <c:v>579093.1581608358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>605096.69541106501</c:v>
+                  <c:v>605096.695411065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>631323.21299321484</c:v>
+                  <c:v>631323.2129932148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>657774.62296363164</c:v>
+                  <c:v>657774.6229636316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4900,25 +4897,25 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$AD$57:$AD$62</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>514687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501070.49119880609</c:v>
+                  <c:v>501070.4911988061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>501937.17066083587</c:v>
+                  <c:v>501937.1706608359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>502811.28189925256</c:v>
+                  <c:v>502811.2818992526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503692.88864153862</c:v>
+                  <c:v>503692.8886415386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>504582.05516163982</c:v>
+                  <c:v>504582.0551616398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4938,12 +4935,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335744008"/>
-        <c:axId val="106693864"/>
+        <c:axId val="-2141654408"/>
+        <c:axId val="-2141648776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335744008"/>
+        <c:axId val="-2141654408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4969,8 +4967,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.36129349626400797"/>
-              <c:y val="0.87384040314306299"/>
+              <c:x val="0.361293496264008"/>
+              <c:y val="0.873840403143063"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4989,7 +4987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106693864"/>
+        <c:crossAx val="-2141648776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4997,11 +4995,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106693864"/>
+        <c:axId val="-2141648776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700000"/>
-          <c:min val="0"/>
+          <c:max val="700000.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5025,11 +5023,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0;[Red]\-#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335744008"/>
+        <c:crossAx val="-2141654408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5085,8 +5083,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63119376035442398"/>
-          <c:y val="4.29477728029002E-2"/>
+          <c:x val="0.631193760354424"/>
+          <c:y val="0.0429477728029002"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5147,25 +5145,25 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$Y$85:$Y$90</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.254167737505</c:v>
+                  <c:v>31069.2541677375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31335.673022225852</c:v>
+                  <c:v>31335.67302222585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.376418391439</c:v>
+                  <c:v>31604.37641839144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.383946179147</c:v>
+                  <c:v>31875.38394617915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5225,25 +5223,25 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$Z$85:$Z$90</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46912.835948011139</c:v>
+                  <c:v>46912.83594801114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31069.644068254198</c:v>
+                  <c:v>31069.6440682542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31336.066266139478</c:v>
+                  <c:v>31336.06626613948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31604.773034371625</c:v>
+                  <c:v>31604.77303437162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31875.783963141363</c:v>
+                  <c:v>31875.78396314136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5294,25 +5292,25 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$AA$85:$AA$90</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33275.741692702402</c:v>
+                  <c:v>-33275.7416927024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28504.443289974348</c:v>
+                  <c:v>28504.44328997435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29775.456416274305</c:v>
+                  <c:v>29775.4564162743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30751.169868822304</c:v>
+                  <c:v>30751.1698688223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31014.861150447457</c:v>
+                  <c:v>31014.86115044746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5363,25 +5361,25 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$AB$85:$AB$90</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-28067.820596812002</c:v>
+                  <c:v>-28067.820596812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28842.958161207225</c:v>
+                  <c:v>28842.95816120723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30129.065665615453</c:v>
+                  <c:v>30129.06566561545</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30822.20384685486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31086.504244841639</c:v>
+                  <c:v>31086.50424484164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5441,25 +5439,25 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$AC$85:$AC$90</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219.6311399850765</c:v>
+                  <c:v>2219.631139985076</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37906.03097701045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38231.075192638316</c:v>
+                  <c:v>38231.07519263832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38558.906662415189</c:v>
+                  <c:v>38558.90666241519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5519,25 +5517,25 @@
             <c:numRef>
               <c:f>'Ranch Strategies'!$AD$85:$AD$90</c:f>
               <c:numCache>
-                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:formatCode>#,##0;[Red]\-#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>46867.366500000004</c:v>
+                  <c:v>46867.3665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98499.258307297598</c:v>
+                  <c:v>98499.2583072976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1263.3811399850765</c:v>
+                  <c:v>1263.381139985077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1274.2146332604489</c:v>
+                  <c:v>1274.214633260449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1285.1410237406571</c:v>
+                  <c:v>1285.141023740657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1296.1611080192333</c:v>
+                  <c:v>1296.161108019233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5557,12 +5555,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106691904"/>
-        <c:axId val="106693472"/>
+        <c:axId val="-2141606888"/>
+        <c:axId val="-2141603560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106691904"/>
+        <c:axId val="-2141606888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5572,7 +5571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="106693472"/>
+        <c:crossAx val="-2141603560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5580,10 +5579,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106693472"/>
+        <c:axId val="-2141603560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-150000"/>
+          <c:min val="-150000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5608,8 +5607,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6548463356973998E-2"/>
-              <c:y val="0.28159074615376101"/>
+              <c:x val="0.016548463356974"/>
+              <c:y val="0.281590746153761"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5618,7 +5617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106691904"/>
+        <c:crossAx val="-2141606888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5629,10 +5628,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64421571334932604"/>
-          <c:y val="0.13354527833281199"/>
-          <c:w val="0.27549734317760599"/>
-          <c:h val="0.42357206300667599"/>
+          <c:x val="0.644215713349326"/>
+          <c:y val="0.133545278332812"/>
+          <c:w val="0.275497343177606"/>
+          <c:h val="0.423572063006676"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5822,7 +5821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -5857,7 +5856,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -6066,17 +6065,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:CG5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="26" width="18.7109375" customWidth="1"/>
+    <col min="1" max="26" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -6147,7 +6146,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85">
       <c r="E2" s="148">
         <f>'Ranch Strategies'!$Q$149</f>
         <v>628540.18485002359</v>
@@ -6156,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6384,32 +6383,37 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:CK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:89" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:89" ht="18">
       <c r="B3" s="455" t="s">
         <v>295</v>
       </c>
@@ -6427,7 +6431,7 @@
       <c r="M3" s="404"/>
       <c r="N3" s="405"/>
     </row>
-    <row r="4" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:89">
       <c r="B4" s="441"/>
       <c r="C4" s="437"/>
       <c r="D4" s="437"/>
@@ -6441,7 +6445,7 @@
       <c r="M4" s="407"/>
       <c r="N4" s="408"/>
     </row>
-    <row r="5" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:89">
       <c r="B5" s="441"/>
       <c r="C5" s="437"/>
       <c r="D5" s="437"/>
@@ -6459,7 +6463,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:89" ht="13">
       <c r="B6" s="441"/>
       <c r="C6" s="376" t="s">
         <v>271</v>
@@ -6477,7 +6481,7 @@
       <c r="M6" s="407"/>
       <c r="N6" s="408"/>
     </row>
-    <row r="7" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:89">
       <c r="B7" s="441"/>
       <c r="C7" s="378"/>
       <c r="D7" s="391"/>
@@ -6499,7 +6503,7 @@
         <v>53700</v>
       </c>
     </row>
-    <row r="8" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:89">
       <c r="B8" s="441"/>
       <c r="C8" s="378" t="s">
         <v>173</v>
@@ -6525,7 +6529,7 @@
         <v>15088.577640713542</v>
       </c>
     </row>
-    <row r="9" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:89">
       <c r="B9" s="441"/>
       <c r="C9" s="378" t="s">
         <v>305</v>
@@ -6553,7 +6557,7 @@
       <c r="CJ9" s="363"/>
       <c r="CK9" s="357"/>
     </row>
-    <row r="10" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:89">
       <c r="B10" s="441"/>
       <c r="C10" s="378" t="s">
         <v>281</v>
@@ -6581,7 +6585,7 @@
       <c r="CJ10" s="363"/>
       <c r="CK10" s="357"/>
     </row>
-    <row r="11" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:89">
       <c r="B11" s="441"/>
       <c r="C11" s="378" t="s">
         <v>306</v>
@@ -6611,7 +6615,7 @@
       </c>
       <c r="CK11" s="357"/>
     </row>
-    <row r="12" spans="2:89" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:89">
       <c r="B12" s="441"/>
       <c r="C12" s="378" t="s">
         <v>307</v>
@@ -6641,7 +6645,7 @@
       </c>
       <c r="CK12" s="357"/>
     </row>
-    <row r="13" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:89" ht="14">
       <c r="B13" s="441"/>
       <c r="C13" s="381" t="s">
         <v>303</v>
@@ -6689,7 +6693,7 @@
       </c>
       <c r="CK13" s="357"/>
     </row>
-    <row r="14" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:89" ht="14">
       <c r="B14" s="441"/>
       <c r="C14" s="437"/>
       <c r="D14" s="437"/>
@@ -6745,7 +6749,7 @@
       </c>
       <c r="CK14" s="357"/>
     </row>
-    <row r="15" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:89" ht="14">
       <c r="B15" s="441"/>
       <c r="C15" s="437"/>
       <c r="D15" s="437"/>
@@ -6802,7 +6806,7 @@
       </c>
       <c r="CK15" s="357"/>
     </row>
-    <row r="16" spans="2:89" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:89" ht="14">
       <c r="B16" s="441"/>
       <c r="C16" s="366" t="s">
         <v>0</v>
@@ -6857,7 +6861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:86" ht="14">
       <c r="B17" s="441"/>
       <c r="C17" s="369"/>
       <c r="D17" s="370"/>
@@ -6910,7 +6914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:86" ht="14">
       <c r="B18" s="441"/>
       <c r="C18" s="369" t="s">
         <v>272</v>
@@ -6967,7 +6971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:86" ht="14">
       <c r="B19" s="441"/>
       <c r="C19" s="369" t="s">
         <v>273</v>
@@ -7024,7 +7028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:86" ht="14">
       <c r="B20" s="441"/>
       <c r="C20" s="369" t="s">
         <v>3</v>
@@ -7047,7 +7051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:86" ht="14">
       <c r="B21" s="441"/>
       <c r="C21" s="369" t="s">
         <v>53</v>
@@ -7076,7 +7080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:86" ht="14">
       <c r="B22" s="441"/>
       <c r="C22" s="372" t="s">
         <v>45</v>
@@ -7105,7 +7109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:86" ht="14">
       <c r="B23" s="441"/>
       <c r="C23" s="437"/>
       <c r="D23" s="437"/>
@@ -7130,7 +7134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:86" ht="14">
       <c r="B24" s="441"/>
       <c r="C24" s="437"/>
       <c r="D24" s="437"/>
@@ -7155,7 +7159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:86" ht="14">
       <c r="B25" s="441"/>
       <c r="C25" s="366" t="s">
         <v>2</v>
@@ -7182,7 +7186,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="2:86" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:86" ht="13">
       <c r="B26" s="441"/>
       <c r="C26" s="374"/>
       <c r="D26" s="370"/>
@@ -7204,7 +7208,7 @@
         <v>998.98156067187665</v>
       </c>
     </row>
-    <row r="27" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:86">
       <c r="B27" s="441"/>
       <c r="C27" s="369" t="s">
         <v>70</v>
@@ -7224,7 +7228,7 @@
       <c r="M27" s="407"/>
       <c r="N27" s="408"/>
     </row>
-    <row r="28" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:86">
       <c r="B28" s="441"/>
       <c r="C28" s="369" t="s">
         <v>71</v>
@@ -7250,7 +7254,7 @@
         <v>38614.29094676087</v>
       </c>
     </row>
-    <row r="29" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:86">
       <c r="B29" s="441"/>
       <c r="C29" s="369" t="s">
         <v>30</v>
@@ -7276,7 +7280,7 @@
         <v>38277.49541052225</v>
       </c>
     </row>
-    <row r="30" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:86">
       <c r="B30" s="441"/>
       <c r="C30" s="369" t="s">
         <v>31</v>
@@ -7302,7 +7306,7 @@
         <v>36301.531527284853</v>
       </c>
     </row>
-    <row r="31" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:86">
       <c r="B31" s="441"/>
       <c r="C31" s="369"/>
       <c r="D31" s="370"/>
@@ -7324,7 +7328,7 @@
         <v>36670.908213054121</v>
       </c>
     </row>
-    <row r="32" spans="2:86" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:86">
       <c r="B32" s="441"/>
       <c r="C32" s="375" t="s">
         <v>298</v>
@@ -7348,7 +7352,7 @@
         <v>44844.705328714794</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25">
       <c r="B33" s="441"/>
       <c r="C33" s="369" t="s">
         <v>43</v>
@@ -7374,7 +7378,7 @@
         <v>1007.5478275546375</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25">
       <c r="B34" s="441"/>
       <c r="C34" s="369" t="s">
         <v>274</v>
@@ -7394,7 +7398,7 @@
       <c r="M34" s="407"/>
       <c r="N34" s="408"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25">
       <c r="B35" s="441"/>
       <c r="C35" s="369" t="s">
         <v>275</v>
@@ -7420,7 +7424,7 @@
         <v>38945.40849162935</v>
       </c>
     </row>
-    <row r="36" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" ht="15">
       <c r="B36" s="441"/>
       <c r="C36" s="372" t="s">
         <v>276</v>
@@ -7458,7 +7462,7 @@
       <c r="X36" s="404"/>
       <c r="Y36" s="405"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25">
       <c r="B37" s="441"/>
       <c r="C37" s="437"/>
       <c r="D37" s="437"/>
@@ -7490,7 +7494,7 @@
       <c r="X37" s="407"/>
       <c r="Y37" s="408"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25">
       <c r="B38" s="441"/>
       <c r="C38" s="437"/>
       <c r="D38" s="437"/>
@@ -7534,7 +7538,7 @@
       </c>
       <c r="Y38" s="408"/>
     </row>
-    <row r="39" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" ht="13">
       <c r="B39" s="441"/>
       <c r="C39" s="366" t="s">
         <v>277</v>
@@ -7588,7 +7592,7 @@
       </c>
       <c r="Y39" s="458"/>
     </row>
-    <row r="40" spans="2:25" s="402" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" s="402" customFormat="1" ht="13">
       <c r="B40" s="441"/>
       <c r="C40" s="374"/>
       <c r="D40" s="370"/>
@@ -7640,7 +7644,7 @@
       </c>
       <c r="Y40" s="463"/>
     </row>
-    <row r="41" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:25" ht="14" customHeight="1">
       <c r="B41" s="441"/>
       <c r="C41" s="465" t="s">
         <v>301</v>
@@ -7653,7 +7657,7 @@
       </c>
       <c r="H41" s="442"/>
     </row>
-    <row r="42" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" ht="14" customHeight="1">
       <c r="B42" s="441"/>
       <c r="C42" s="369" t="s">
         <v>21</v>
@@ -7666,7 +7670,7 @@
       </c>
       <c r="H42" s="442"/>
     </row>
-    <row r="43" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" ht="17">
       <c r="B43" s="441"/>
       <c r="C43" s="369" t="s">
         <v>51</v>
@@ -7686,7 +7690,7 @@
       <c r="M43" s="404"/>
       <c r="N43" s="405"/>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25">
       <c r="B44" s="441"/>
       <c r="C44" s="369" t="s">
         <v>52</v>
@@ -7704,7 +7708,7 @@
       <c r="M44" s="407"/>
       <c r="N44" s="408"/>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25">
       <c r="B45" s="441"/>
       <c r="C45" s="369" t="s">
         <v>36</v>
@@ -7726,7 +7730,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25">
       <c r="B46" s="441"/>
       <c r="C46" s="372" t="s">
         <v>278</v>
@@ -7746,7 +7750,7 @@
       <c r="M46" s="407"/>
       <c r="N46" s="408"/>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25">
       <c r="B47" s="441"/>
       <c r="C47" s="437"/>
       <c r="D47" s="437"/>
@@ -7768,7 +7772,7 @@
         <v>546838.19999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25">
       <c r="B48" s="441"/>
       <c r="C48" s="437"/>
       <c r="D48" s="437"/>
@@ -7790,7 +7794,7 @@
         <v>520350.76426152949</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" ht="13">
       <c r="B49" s="441"/>
       <c r="C49" s="382" t="s">
         <v>279</v>
@@ -7814,7 +7818,7 @@
         <v>444900</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:23">
       <c r="B50" s="441"/>
       <c r="C50" s="385"/>
       <c r="D50" s="386"/>
@@ -7836,7 +7840,7 @@
         <v>450107.9210958904</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:23">
       <c r="B51" s="441"/>
       <c r="C51" s="385" t="s">
         <v>280</v>
@@ -7862,7 +7866,7 @@
         <v>555739.05000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:23">
       <c r="B52" s="441"/>
       <c r="C52" s="385" t="s">
         <v>227</v>
@@ -7888,7 +7892,7 @@
         <v>479239.05000000005</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:23">
       <c r="B53" s="441"/>
       <c r="C53" s="385" t="s">
         <v>205</v>
@@ -7908,7 +7912,7 @@
       <c r="M53" s="407"/>
       <c r="N53" s="408"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:23">
       <c r="B54" s="441"/>
       <c r="C54" s="385" t="s">
         <v>228</v>
@@ -7934,7 +7938,7 @@
         <v>572879.08756499994</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:23">
       <c r="B55" s="441"/>
       <c r="C55" s="388" t="s">
         <v>229</v>
@@ -7960,7 +7964,7 @@
         <v>546164.52206507209</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:23">
       <c r="B56" s="441"/>
       <c r="C56" s="437"/>
       <c r="D56" s="437"/>
@@ -7982,7 +7986,7 @@
         <v>467722.19099999999</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:23">
       <c r="B57" s="452"/>
       <c r="C57" s="453"/>
       <c r="D57" s="453"/>
@@ -8025,7 +8029,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:23">
       <c r="J58" s="406"/>
       <c r="K58" s="407" t="s">
         <v>284</v>
@@ -8067,7 +8071,7 @@
         <v>46867.366500000004</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:23">
       <c r="J59" s="406"/>
       <c r="K59" s="407" t="s">
         <v>285</v>
@@ -8110,7 +8114,7 @@
         <v>98499.258307297598</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:23">
       <c r="J60" s="409" t="s">
         <v>289</v>
       </c>
@@ -8147,7 +8151,7 @@
         <v>1263.3811399850765</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:23">
       <c r="J61" s="406"/>
       <c r="K61" s="407" t="s">
         <v>300</v>
@@ -8190,7 +8194,7 @@
         <v>1274.2146332604489</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:23">
       <c r="J62" s="406"/>
       <c r="K62" s="407" t="s">
         <v>282</v>
@@ -8233,7 +8237,7 @@
         <v>1285.1410237406571</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:23">
       <c r="J63" s="406"/>
       <c r="K63" s="407" t="s">
         <v>283</v>
@@ -8276,7 +8280,7 @@
         <v>1296.1611080192333</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:23">
       <c r="J64" s="406"/>
       <c r="K64" s="407" t="s">
         <v>261</v>
@@ -8291,7 +8295,7 @@
         <v>497244.7417392942</v>
       </c>
     </row>
-    <row r="65" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:14">
       <c r="J65" s="406"/>
       <c r="K65" s="407" t="s">
         <v>284</v>
@@ -8306,7 +8310,7 @@
         <v>587576.4262971835</v>
       </c>
     </row>
-    <row r="66" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:14">
       <c r="J66" s="406"/>
       <c r="K66" s="407" t="s">
         <v>285</v>
@@ -8321,7 +8325,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="67" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:14">
       <c r="J67" s="409" t="s">
         <v>290</v>
       </c>
@@ -8330,7 +8334,7 @@
       <c r="M67" s="407"/>
       <c r="N67" s="408"/>
     </row>
-    <row r="68" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:14">
       <c r="J68" s="406"/>
       <c r="K68" s="407" t="s">
         <v>300</v>
@@ -8345,7 +8349,7 @@
         <v>625632.6793303478</v>
       </c>
     </row>
-    <row r="69" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:14">
       <c r="J69" s="406"/>
       <c r="K69" s="407" t="s">
         <v>282</v>
@@ -8360,7 +8364,7 @@
         <v>598457.99469339836</v>
       </c>
     </row>
-    <row r="70" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:14">
       <c r="J70" s="406"/>
       <c r="K70" s="407" t="s">
         <v>283</v>
@@ -8375,7 +8379,7 @@
         <v>516464.87412440742</v>
       </c>
     </row>
-    <row r="71" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:14">
       <c r="J71" s="406"/>
       <c r="K71" s="407" t="s">
         <v>261</v>
@@ -8390,7 +8394,7 @@
         <v>522400.98477344931</v>
       </c>
     </row>
-    <row r="72" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="10:14">
       <c r="J72" s="406"/>
       <c r="K72" s="407" t="s">
         <v>284</v>
@@ -8405,7 +8409,7 @@
         <v>618339.89415268181</v>
       </c>
     </row>
-    <row r="73" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="10:14">
       <c r="J73" s="406"/>
       <c r="K73" s="407" t="s">
         <v>285</v>
@@ -8420,7 +8424,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="74" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="10:14">
       <c r="J74" s="409" t="s">
         <v>291</v>
       </c>
@@ -8429,7 +8433,7 @@
       <c r="M74" s="407"/>
       <c r="N74" s="408"/>
     </row>
-    <row r="75" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="10:14">
       <c r="J75" s="406"/>
       <c r="K75" s="407" t="s">
         <v>300</v>
@@ -8444,7 +8448,7 @@
         <v>652349.22955560556</v>
       </c>
     </row>
-    <row r="76" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="10:14">
       <c r="J76" s="406"/>
       <c r="K76" s="407" t="s">
         <v>282</v>
@@ -8459,7 +8463,7 @@
         <v>624941.52199789428</v>
       </c>
     </row>
-    <row r="77" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="10:14">
       <c r="J77" s="406"/>
       <c r="K77" s="407" t="s">
         <v>283</v>
@@ -8474,7 +8478,7 @@
         <v>542245.31042002421</v>
       </c>
     </row>
-    <row r="78" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="10:14">
       <c r="J78" s="406"/>
       <c r="K78" s="407" t="s">
         <v>261</v>
@@ -8489,7 +8493,7 @@
         <v>548232.32321788161</v>
       </c>
     </row>
-    <row r="79" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="10:14">
       <c r="J79" s="406"/>
       <c r="K79" s="407" t="s">
         <v>284</v>
@@ -8504,7 +8508,7 @@
         <v>649367.158745041</v>
       </c>
     </row>
-    <row r="80" spans="10:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="10:14">
       <c r="J80" s="410"/>
       <c r="K80" s="411" t="s">
         <v>285</v>
@@ -8534,36 +8538,41 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="172" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="172"/>
-    <col min="5" max="5" width="9.140625" style="172" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="172"/>
-    <col min="9" max="10" width="9.140625" style="172" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="172"/>
+    <col min="1" max="1" width="13.5" style="172" customWidth="1"/>
+    <col min="2" max="4" width="9.1640625" style="172"/>
+    <col min="5" max="5" width="9.1640625" style="172" customWidth="1"/>
+    <col min="6" max="8" width="9.1640625" style="172"/>
+    <col min="9" max="10" width="9.1640625" style="172" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" thickBot="1">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15" thickBot="1">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -8582,7 +8591,7 @@
       <c r="H2" s="225"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="174" t="s">
         <v>187</v>
       </c>
@@ -8606,14 +8615,14 @@
       </c>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="268"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" s="181" t="s">
@@ -8654,7 +8663,7 @@
       </c>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="225" t="s">
         <v>250</v>
       </c>
@@ -8697,7 +8706,7 @@
       <c r="P7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="225" t="s">
         <v>186</v>
       </c>
@@ -8755,7 +8764,7 @@
       </c>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="225" t="s">
         <v>173</v>
       </c>
@@ -8821,7 +8830,7 @@
       </c>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="225" t="s">
         <v>204</v>
       </c>
@@ -8876,7 +8885,7 @@
       <c r="P10"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="225" t="s">
         <v>251</v>
       </c>
@@ -8923,7 +8932,7 @@
       <c r="R11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="225" t="s">
         <v>252</v>
       </c>
@@ -8970,7 +8979,7 @@
       <c r="R12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="225" t="s">
         <v>253</v>
       </c>
@@ -9014,7 +9023,7 @@
       <c r="R13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="225" t="s">
         <v>254</v>
       </c>
@@ -9058,7 +9067,7 @@
       <c r="R14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15">
       <c r="A15" s="225"/>
       <c r="D15" s="228"/>
       <c r="E15" s="228"/>
@@ -9074,7 +9083,7 @@
       <c r="O15" s="228"/>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="348" t="s">
         <v>264</v>
       </c>
@@ -9128,12 +9137,12 @@
       </c>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="348" t="s">
         <v>265</v>
       </c>
       <c r="D17" s="172">
-        <f t="shared" ref="D17:O19" si="2">D12*D$10</f>
+        <f t="shared" ref="D17:O18" si="2">D12*D$10</f>
         <v>7.6835164835164843E-3</v>
       </c>
       <c r="E17" s="172">
@@ -9182,7 +9191,7 @@
       </c>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" s="348" t="s">
         <v>266</v>
       </c>
@@ -9236,7 +9245,7 @@
       </c>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="A19" s="348" t="s">
         <v>267</v>
       </c>
@@ -9290,10 +9299,10 @@
       </c>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -9311,7 +9320,7 @@
       <c r="O21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -9328,7 +9337,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -9345,7 +9354,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -9362,7 +9371,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -9379,7 +9388,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -9396,7 +9405,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -9413,7 +9422,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -9430,7 +9439,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -9447,7 +9456,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -9464,7 +9473,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -9481,7 +9490,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -9498,7 +9507,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -9515,7 +9524,7 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -9535,27 +9544,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView topLeftCell="A65" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="175" customWidth="1"/>
-    <col min="2" max="13" width="5.7109375" style="175" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="175" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="175"/>
+    <col min="1" max="1" width="12.5" style="175" customWidth="1"/>
+    <col min="2" max="13" width="5.6640625" style="175" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="175" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="175"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="175" t="s">
         <v>188</v>
       </c>
@@ -9569,7 +9583,7 @@
       <c r="I1" s="473"/>
       <c r="J1" s="473"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="175" t="s">
         <v>173</v>
       </c>
@@ -9613,7 +9627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="175">
         <v>1939</v>
       </c>
@@ -9658,7 +9672,7 @@
         <v>5.2000000000000011</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="175">
         <v>1940</v>
       </c>
@@ -9703,7 +9717,7 @@
         <v>14.810000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="175">
         <v>1941</v>
       </c>
@@ -9748,7 +9762,7 @@
         <v>19.809999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="175">
         <v>1942</v>
       </c>
@@ -9793,7 +9807,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="175">
         <v>1943</v>
       </c>
@@ -9842,7 +9856,7 @@
       </c>
       <c r="P7" s="178"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="175">
         <v>1944</v>
       </c>
@@ -9887,7 +9901,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="175">
         <v>1945</v>
       </c>
@@ -9932,7 +9946,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="175">
         <v>1946</v>
       </c>
@@ -9977,7 +9991,7 @@
         <v>11.790000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="175">
         <v>1947</v>
       </c>
@@ -10022,7 +10036,7 @@
         <v>15.429999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="175">
         <v>1948</v>
       </c>
@@ -10067,7 +10081,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="175">
         <v>1949</v>
       </c>
@@ -10112,7 +10126,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="175">
         <v>1950</v>
       </c>
@@ -10157,7 +10171,7 @@
         <v>12.000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="175">
         <v>1951</v>
       </c>
@@ -10202,7 +10216,7 @@
         <v>13.110000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="175">
         <v>1952</v>
       </c>
@@ -10247,7 +10261,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="175">
         <v>1953</v>
       </c>
@@ -10292,7 +10306,7 @@
         <v>11.96</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="175">
         <v>1954</v>
       </c>
@@ -10337,7 +10351,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="175">
         <v>1955</v>
       </c>
@@ -10382,7 +10396,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="175">
         <v>1956</v>
       </c>
@@ -10427,7 +10441,7 @@
         <v>9.7199999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="175">
         <v>1957</v>
       </c>
@@ -10472,7 +10486,7 @@
         <v>16.57</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="175">
         <v>1958</v>
       </c>
@@ -10517,7 +10531,7 @@
         <v>13.270000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="175">
         <v>1959</v>
       </c>
@@ -10562,7 +10576,7 @@
         <v>12.24</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="175">
         <v>1960</v>
       </c>
@@ -10607,7 +10621,7 @@
         <v>7.1000000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="175">
         <v>1961</v>
       </c>
@@ -10652,7 +10666,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="175">
         <v>1962</v>
       </c>
@@ -10697,7 +10711,7 @@
         <v>15.879999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="175">
         <v>1963</v>
       </c>
@@ -10742,7 +10756,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="175">
         <v>1964</v>
       </c>
@@ -10787,7 +10801,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="175">
         <v>1965</v>
       </c>
@@ -10832,7 +10846,7 @@
         <v>14.839999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="175">
         <v>1966</v>
       </c>
@@ -10877,7 +10891,7 @@
         <v>11.040000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="175">
         <v>1967</v>
       </c>
@@ -10922,7 +10936,7 @@
         <v>22.88</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="175">
         <v>1968</v>
       </c>
@@ -10967,7 +10981,7 @@
         <v>13.119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="175">
         <v>1969</v>
       </c>
@@ -11012,7 +11026,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="175">
         <v>1970</v>
       </c>
@@ -11057,7 +11071,7 @@
         <v>9.5400000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="175">
         <v>1971</v>
       </c>
@@ -11102,7 +11116,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="175">
         <v>1972</v>
       </c>
@@ -11147,7 +11161,7 @@
         <v>14.719999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="175">
         <v>1973</v>
       </c>
@@ -11192,7 +11206,7 @@
         <v>10.829999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="175">
         <v>1974</v>
       </c>
@@ -11237,7 +11251,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="175">
         <v>1975</v>
       </c>
@@ -11282,7 +11296,7 @@
         <v>12.040000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="175">
         <v>1976</v>
       </c>
@@ -11327,7 +11341,7 @@
         <v>10.260000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="175">
         <v>1977</v>
       </c>
@@ -11372,7 +11386,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="175">
         <v>1978</v>
       </c>
@@ -11417,7 +11431,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="175">
         <v>1979</v>
       </c>
@@ -11462,7 +11476,7 @@
         <v>19.429999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="175">
         <v>1980</v>
       </c>
@@ -11507,7 +11521,7 @@
         <v>14.180000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="175">
         <v>1981</v>
       </c>
@@ -11552,7 +11566,7 @@
         <v>15.629999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="175">
         <v>1982</v>
       </c>
@@ -11597,7 +11611,7 @@
         <v>18.689999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="175">
         <v>1983</v>
       </c>
@@ -11642,7 +11656,7 @@
         <v>16.87</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="175">
         <v>1984</v>
       </c>
@@ -11687,7 +11701,7 @@
         <v>18.919999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="175">
         <v>1985</v>
       </c>
@@ -11732,7 +11746,7 @@
         <v>12.130000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="175">
         <v>1986</v>
       </c>
@@ -11777,7 +11791,7 @@
         <v>10.260000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="175">
         <v>1987</v>
       </c>
@@ -11822,7 +11836,7 @@
         <v>17.439999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="175">
         <v>1988</v>
       </c>
@@ -11867,7 +11881,7 @@
         <v>10.959999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="175">
         <v>1989</v>
       </c>
@@ -11912,7 +11926,7 @@
         <v>14.419999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="175">
         <v>1990</v>
       </c>
@@ -11957,7 +11971,7 @@
         <v>15.67</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="175">
         <v>1991</v>
       </c>
@@ -12002,7 +12016,7 @@
         <v>16.689999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="175">
         <v>1992</v>
       </c>
@@ -12047,7 +12061,7 @@
         <v>15.86</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="175">
         <v>1993</v>
       </c>
@@ -12092,7 +12106,7 @@
         <v>16.960000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="175">
         <v>1994</v>
       </c>
@@ -12137,7 +12151,7 @@
         <v>11.979999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="175">
         <v>1995</v>
       </c>
@@ -12182,7 +12196,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="175">
         <v>1996</v>
       </c>
@@ -12227,7 +12241,7 @@
         <v>15.240000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="175">
         <v>1997</v>
       </c>
@@ -12272,7 +12286,7 @@
         <v>22.250000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="175">
         <v>1998</v>
       </c>
@@ -12317,7 +12331,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="175">
         <v>1999</v>
       </c>
@@ -12362,7 +12376,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="175">
         <v>2000</v>
       </c>
@@ -12407,7 +12421,7 @@
         <v>12.250000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24">
       <c r="A65" s="175">
         <v>2001</v>
       </c>
@@ -12452,7 +12466,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24">
       <c r="A66" s="175">
         <v>2002</v>
       </c>
@@ -12497,7 +12511,7 @@
         <v>9.5599999999999987</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24">
       <c r="A67" s="175">
         <v>2003</v>
       </c>
@@ -12542,7 +12556,7 @@
         <v>12.69</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24">
       <c r="A68" s="175">
         <v>2004</v>
       </c>
@@ -12587,7 +12601,7 @@
         <v>11.550000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24">
       <c r="A69" s="175">
         <v>2005</v>
       </c>
@@ -12632,7 +12646,7 @@
         <v>14.569999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24">
       <c r="A70" s="175">
         <v>2006</v>
       </c>
@@ -12677,7 +12691,7 @@
         <v>11.840000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24">
       <c r="A71" s="175">
         <v>2007</v>
       </c>
@@ -12722,7 +12736,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24">
       <c r="A72" s="175">
         <v>2008</v>
       </c>
@@ -12767,7 +12781,7 @@
         <v>13.020000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24">
       <c r="A73" s="175">
         <v>2009</v>
       </c>
@@ -12812,7 +12826,7 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24">
       <c r="A74" s="175">
         <v>2010</v>
       </c>
@@ -12857,7 +12871,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24">
       <c r="A75" s="175">
         <v>2011</v>
       </c>
@@ -12902,7 +12916,7 @@
         <v>14.030000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24">
       <c r="A76" s="175">
         <v>2012</v>
       </c>
@@ -12977,7 +12991,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24">
       <c r="A77" s="175">
         <v>2013</v>
       </c>
@@ -13022,7 +13036,7 @@
         <v>15.989999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24">
       <c r="A78" s="175">
         <v>2014</v>
       </c>
@@ -13067,7 +13081,7 @@
         <v>14.559999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24">
       <c r="A79" s="175">
         <v>2015</v>
       </c>
@@ -13112,7 +13126,7 @@
         <v>14.979999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24">
       <c r="A80" s="175">
         <v>2016</v>
       </c>
@@ -13142,7 +13156,7 @@
       <c r="M80" s="179"/>
       <c r="N80" s="179"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81" s="175" t="s">
         <v>202</v>
       </c>
@@ -13199,7 +13213,7 @@
         <v>13.457922077922078</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14">
       <c r="B82" s="177" t="s">
         <v>201</v>
       </c>
@@ -13215,7 +13229,7 @@
       <c r="L82" s="177"/>
       <c r="M82" s="177"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14">
       <c r="A83" s="180" t="s">
         <v>203</v>
       </c>
@@ -13279,40 +13293,45 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="14" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AM236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="158" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="0.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="0.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="13" width="0.85546875" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" customWidth="1"/>
-    <col min="15" max="15" width="0.85546875" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="6.42578125" customWidth="1"/>
-    <col min="25" max="28" width="10.7109375" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="0.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="0.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="13" width="0.83203125" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" customWidth="1"/>
+    <col min="15" max="15" width="0.83203125" customWidth="1"/>
+    <col min="16" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" customWidth="1"/>
+    <col min="23" max="23" width="6.5" customWidth="1"/>
+    <col min="25" max="28" width="10.6640625" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39">
       <c r="A1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -13335,7 +13354,7 @@
       <c r="U1" s="13"/>
       <c r="W1" s="13"/>
     </row>
-    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="20">
       <c r="A2" s="13"/>
       <c r="C2" s="347" t="s">
         <v>311</v>
@@ -13360,7 +13379,7 @@
       <c r="U2" s="170"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="14">
       <c r="A3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -13383,7 +13402,7 @@
       <c r="U3" s="170"/>
       <c r="W3" s="13"/>
     </row>
-    <row r="4" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="14">
       <c r="A4" s="13"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -13408,7 +13427,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="14">
       <c r="A5" s="13"/>
       <c r="C5" s="168" t="s">
         <v>263</v>
@@ -13448,7 +13467,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="159" customHeight="1">
       <c r="A6" s="13"/>
       <c r="C6" s="483" t="s">
         <v>270</v>
@@ -13473,7 +13492,7 @@
       <c r="U6" s="170"/>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15" customHeight="1">
       <c r="A7" s="67"/>
       <c r="C7" s="68" t="s">
         <v>41</v>
@@ -13500,7 +13519,7 @@
       <c r="U7" s="67"/>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15" customHeight="1">
       <c r="A8" s="67"/>
       <c r="C8" s="15" t="s">
         <v>1</v>
@@ -13546,7 +13565,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15" customHeight="1">
       <c r="A9" s="67"/>
       <c r="C9" s="15" t="s">
         <v>72</v>
@@ -13579,7 +13598,7 @@
       </c>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1">
       <c r="A10" s="67"/>
       <c r="C10" s="16" t="s">
         <v>3</v>
@@ -13615,7 +13634,7 @@
       </c>
       <c r="W10" s="13"/>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15" customHeight="1">
       <c r="A11" s="67"/>
       <c r="C11" s="69" t="s">
         <v>53</v>
@@ -13656,7 +13675,7 @@
       <c r="AK11" s="357"/>
       <c r="AM11" s="357"/>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="67"/>
       <c r="C12" s="16" t="s">
         <v>45</v>
@@ -13693,7 +13712,7 @@
       <c r="AK12" s="357"/>
       <c r="AM12" s="357"/>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="67"/>
       <c r="C13" s="490" t="s">
         <v>309</v>
@@ -13733,7 +13752,7 @@
       <c r="AK13" s="357"/>
       <c r="AM13" s="357"/>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15" customHeight="1" thickTop="1">
       <c r="A14" s="67"/>
       <c r="C14" s="68" t="s">
         <v>44</v>
@@ -13770,7 +13789,7 @@
       <c r="AK14" s="357"/>
       <c r="AM14" s="357"/>
     </row>
-    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15" customHeight="1">
       <c r="A15" s="67"/>
       <c r="C15" s="16" t="s">
         <v>51</v>
@@ -13820,7 +13839,7 @@
       <c r="AK15" s="357"/>
       <c r="AM15" s="357"/>
     </row>
-    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15" customHeight="1">
       <c r="A16" s="67"/>
       <c r="C16" s="16" t="s">
         <v>52</v>
@@ -13873,7 +13892,7 @@
       <c r="AK16" s="357"/>
       <c r="AM16" s="357"/>
     </row>
-    <row r="17" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="15" customHeight="1">
       <c r="A17" s="67"/>
       <c r="C17" s="69" t="s">
         <v>36</v>
@@ -13918,7 +13937,7 @@
       <c r="AK17" s="357"/>
       <c r="AM17" s="357"/>
     </row>
-    <row r="18" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="15" customHeight="1">
       <c r="A18" s="67"/>
       <c r="C18" s="15" t="s">
         <v>29</v>
@@ -13970,7 +13989,7 @@
       <c r="AK18" s="357"/>
       <c r="AM18" s="357"/>
     </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="15" customHeight="1">
       <c r="A19" s="67"/>
       <c r="C19" s="15" t="s">
         <v>214</v>
@@ -14015,7 +14034,7 @@
       <c r="AK19" s="357"/>
       <c r="AM19" s="357"/>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="15" customHeight="1">
       <c r="A20" s="67"/>
       <c r="J20" s="67"/>
       <c r="K20" s="67"/>
@@ -14048,7 +14067,7 @@
       <c r="AK20" s="357"/>
       <c r="AM20" s="357"/>
     </row>
-    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="15" customHeight="1">
       <c r="A21" s="67"/>
       <c r="C21" s="164" t="s">
         <v>170</v>
@@ -14085,7 +14104,7 @@
       <c r="AK21" s="357"/>
       <c r="AM21" s="357"/>
     </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="15" customHeight="1">
       <c r="A22" s="67"/>
       <c r="C22" s="163" t="s">
         <v>248</v>
@@ -14116,7 +14135,7 @@
       <c r="AK22" s="357"/>
       <c r="AM22" s="357"/>
     </row>
-    <row r="23" spans="1:39" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="16" customHeight="1">
       <c r="A23" s="67"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -14144,7 +14163,7 @@
       <c r="AK23" s="357"/>
       <c r="AM23" s="357"/>
     </row>
-    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="15" customHeight="1">
       <c r="A24" s="67"/>
       <c r="C24" s="46" t="s">
         <v>4</v>
@@ -14173,7 +14192,7 @@
       <c r="AJ24" s="357"/>
       <c r="AK24" s="357"/>
     </row>
-    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="15" customHeight="1">
       <c r="A25" s="67"/>
       <c r="C25" s="18"/>
       <c r="D25" s="32"/>
@@ -14197,7 +14216,7 @@
       <c r="U25" s="485"/>
       <c r="W25" s="13"/>
     </row>
-    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="67"/>
       <c r="C26" s="19" t="s">
         <v>8</v>
@@ -14227,7 +14246,7 @@
       </c>
       <c r="W26" s="13"/>
     </row>
-    <row r="27" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="67"/>
       <c r="C27" s="281" t="s">
         <v>14</v>
@@ -14261,7 +14280,7 @@
       </c>
       <c r="W27" s="13"/>
     </row>
-    <row r="28" spans="1:39" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="15" customHeight="1" thickTop="1">
       <c r="A28" s="67"/>
       <c r="C28" s="282" t="s">
         <v>15</v>
@@ -14294,7 +14313,7 @@
       </c>
       <c r="W28" s="13"/>
     </row>
-    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="15" customHeight="1">
       <c r="A29" s="67"/>
       <c r="C29" s="282" t="s">
         <v>46</v>
@@ -14326,7 +14345,7 @@
       </c>
       <c r="W29" s="13"/>
     </row>
-    <row r="30" spans="1:39" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="10" customHeight="1">
       <c r="A30" s="67"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -14344,7 +14363,7 @@
       <c r="U30" s="13"/>
       <c r="W30" s="13"/>
     </row>
-    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="15" customHeight="1">
       <c r="A31" s="67"/>
       <c r="C31" s="61" t="s">
         <v>215</v>
@@ -14357,7 +14376,7 @@
       <c r="Q31" s="29"/>
       <c r="R31" s="65"/>
     </row>
-    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="15" customHeight="1">
       <c r="A32" s="67"/>
       <c r="C32" s="283" t="s">
         <v>227</v>
@@ -14396,7 +14415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="15" customHeight="1">
       <c r="A33" s="67"/>
       <c r="C33" s="284" t="s">
         <v>205</v>
@@ -14435,7 +14454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="15" customHeight="1">
       <c r="A34" s="67"/>
       <c r="C34" s="284" t="s">
         <v>228</v>
@@ -14472,7 +14491,7 @@
       </c>
       <c r="AC34" s="121"/>
     </row>
-    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="15" customHeight="1">
       <c r="A35" s="67"/>
       <c r="C35" s="284" t="s">
         <v>229</v>
@@ -14509,7 +14528,7 @@
       </c>
       <c r="AC35" s="121"/>
     </row>
-    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="15" customHeight="1">
       <c r="A36" s="67"/>
       <c r="C36" s="284" t="s">
         <v>230</v>
@@ -14544,7 +14563,7 @@
       </c>
       <c r="AC36" s="121"/>
     </row>
-    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="15" customHeight="1">
       <c r="A37" s="67"/>
       <c r="C37" s="284" t="s">
         <v>238</v>
@@ -14581,7 +14600,7 @@
       </c>
       <c r="AC37" s="121"/>
     </row>
-    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="15" customHeight="1">
       <c r="A38" s="67"/>
       <c r="C38" s="285"/>
       <c r="D38" s="192"/>
@@ -14613,7 +14632,7 @@
       </c>
       <c r="AC38" s="121"/>
     </row>
-    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="15" customHeight="1">
       <c r="A39" s="13"/>
       <c r="C39" s="286"/>
       <c r="D39" s="195"/>
@@ -14645,7 +14664,7 @@
       </c>
       <c r="AC39" s="121"/>
     </row>
-    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="15" customHeight="1">
       <c r="A40" s="13"/>
       <c r="C40" s="287"/>
       <c r="D40" s="196"/>
@@ -14677,14 +14696,14 @@
       </c>
       <c r="AC40" s="133"/>
     </row>
-    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="15" customHeight="1">
       <c r="A41" s="13"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="45"/>
       <c r="W41" s="29"/>
     </row>
-    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="15" customHeight="1">
       <c r="A42" s="13"/>
       <c r="C42" s="61" t="s">
         <v>38</v>
@@ -14705,7 +14724,7 @@
       <c r="U42" s="13"/>
       <c r="W42" s="29"/>
     </row>
-    <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="15" customHeight="1">
       <c r="A43" s="13"/>
       <c r="C43" s="288" t="s">
         <v>17</v>
@@ -14738,7 +14757,7 @@
         <v>353700</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="13"/>
       <c r="C44" s="289" t="s">
         <v>19</v>
@@ -14773,7 +14792,7 @@
         <v>306675</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="15" customHeight="1">
       <c r="A45" s="13"/>
       <c r="C45" s="289" t="s">
         <v>21</v>
@@ -14811,7 +14830,7 @@
         <v>47025</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="15" customHeight="1">
       <c r="A46" s="13"/>
       <c r="C46" s="289" t="s">
         <v>92</v>
@@ -14846,7 +14865,7 @@
       <c r="AB46" s="114"/>
       <c r="AC46" s="121"/>
     </row>
-    <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="15" customHeight="1">
       <c r="A47" s="13"/>
       <c r="C47" s="289" t="s">
         <v>93</v>
@@ -14885,7 +14904,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="15" customHeight="1">
       <c r="A48" s="13"/>
       <c r="C48" s="289" t="s">
         <v>94</v>
@@ -14924,7 +14943,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" ht="15" customHeight="1">
       <c r="A49" s="13"/>
       <c r="C49" s="290" t="s">
         <v>39</v>
@@ -14964,7 +14983,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A50" s="13"/>
       <c r="C50" s="291" t="s">
         <v>98</v>
@@ -15000,7 +15019,7 @@
       <c r="AB50" s="114"/>
       <c r="AC50" s="121"/>
     </row>
-    <row r="51" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="15" customHeight="1" thickTop="1">
       <c r="A51" s="13"/>
       <c r="C51" s="292" t="s">
         <v>99</v>
@@ -15041,7 +15060,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="15" customHeight="1">
       <c r="A52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -15069,7 +15088,7 @@
         <v>3187.5</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="15" customHeight="1">
       <c r="A53" s="13"/>
       <c r="C53" s="61" t="s">
         <v>100</v>
@@ -15100,7 +15119,7 @@
         <v>6414.84375</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" ht="15" customHeight="1">
       <c r="A54" s="13"/>
       <c r="C54" s="293" t="s">
         <v>105</v>
@@ -15134,7 +15153,7 @@
         <v>6495.029296875</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A55" s="13"/>
       <c r="C55" s="294" t="s">
         <v>104</v>
@@ -15160,7 +15179,7 @@
       </c>
       <c r="W55" s="13"/>
     </row>
-    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="15" customHeight="1">
       <c r="A56" s="13"/>
       <c r="C56" s="294" t="s">
         <v>103</v>
@@ -15211,7 +15230,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="15" customHeight="1">
       <c r="A57" s="13"/>
       <c r="C57" s="295" t="s">
         <v>78</v>
@@ -15268,7 +15287,7 @@
         <v>514687.5</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="15" customHeight="1">
       <c r="A58" s="13"/>
       <c r="C58" s="296" t="s">
         <v>40</v>
@@ -15326,7 +15345,7 @@
         <v>501070.49119880609</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A59" s="13"/>
       <c r="C59" s="474" t="s">
         <v>96</v>
@@ -15382,7 +15401,7 @@
         <v>501937.17066083587</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" ht="15" thickTop="1">
       <c r="A60" s="13"/>
       <c r="C60" s="477"/>
       <c r="D60" s="478"/>
@@ -15436,7 +15455,7 @@
         <v>502811.28189925256</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" ht="14">
       <c r="A61" s="13"/>
       <c r="C61" s="477"/>
       <c r="D61" s="478"/>
@@ -15490,7 +15509,7 @@
         <v>503692.88864153862</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" ht="14">
       <c r="A62" s="13"/>
       <c r="C62" s="477"/>
       <c r="D62" s="478"/>
@@ -15544,7 +15563,7 @@
         <v>504582.05516163982</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" ht="14">
       <c r="A63" s="13"/>
       <c r="C63" s="480"/>
       <c r="D63" s="481"/>
@@ -15570,7 +15589,7 @@
       </c>
       <c r="W63" s="13"/>
     </row>
-    <row r="64" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" ht="15">
       <c r="A64" s="13"/>
       <c r="C64" s="144"/>
       <c r="D64" s="144"/>
@@ -15597,7 +15616,7 @@
       </c>
       <c r="W64" s="13"/>
     </row>
-    <row r="65" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="15" thickBot="1">
       <c r="A65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -15624,7 +15643,7 @@
       </c>
       <c r="W65" s="13"/>
     </row>
-    <row r="66" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="15" thickTop="1">
       <c r="A66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -15651,7 +15670,7 @@
       </c>
       <c r="W66" s="13"/>
     </row>
-    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="14">
       <c r="A67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -15678,7 +15697,7 @@
       </c>
       <c r="W67" s="13"/>
     </row>
-    <row r="68" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="10" customHeight="1">
       <c r="A68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -15691,7 +15710,7 @@
       <c r="N68" s="13"/>
       <c r="W68" s="13"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23">
       <c r="A69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -15711,7 +15730,7 @@
       <c r="U69" s="17"/>
       <c r="W69" s="13"/>
     </row>
-    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="14">
       <c r="A70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -15734,7 +15753,7 @@
       <c r="U70" s="340"/>
       <c r="W70" s="13"/>
     </row>
-    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="14">
       <c r="A71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -15757,7 +15776,7 @@
       <c r="U71" s="29"/>
       <c r="W71" s="13"/>
     </row>
-    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="28">
       <c r="A72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -15794,7 +15813,7 @@
       </c>
       <c r="W72" s="13"/>
     </row>
-    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="14">
       <c r="A73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -15817,7 +15836,7 @@
       <c r="U73" s="67"/>
       <c r="W73" s="13"/>
     </row>
-    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="14">
       <c r="A74" s="13"/>
       <c r="C74" s="17"/>
       <c r="E74" s="305" t="s">
@@ -15841,7 +15860,7 @@
       <c r="U74" s="109"/>
       <c r="W74" s="13"/>
     </row>
-    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="14">
       <c r="A75" s="13"/>
       <c r="C75" s="17"/>
       <c r="E75" s="306" t="s">
@@ -15883,7 +15902,7 @@
       </c>
       <c r="W75" s="13"/>
     </row>
-    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="14">
       <c r="A76" s="13"/>
       <c r="C76" s="17"/>
       <c r="E76" s="306" t="s">
@@ -15925,7 +15944,7 @@
       </c>
       <c r="W76" s="13"/>
     </row>
-    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="14">
       <c r="A77" s="13"/>
       <c r="C77" s="17"/>
       <c r="E77" s="306" t="s">
@@ -15967,7 +15986,7 @@
       </c>
       <c r="W77" s="13"/>
     </row>
-    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="14">
       <c r="A78" s="13"/>
       <c r="C78" s="70"/>
       <c r="E78" s="307" t="s">
@@ -16009,7 +16028,7 @@
       </c>
       <c r="W78" s="13"/>
     </row>
-    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="14">
       <c r="A79" s="13"/>
       <c r="C79" s="17"/>
       <c r="E79" s="67"/>
@@ -16031,7 +16050,7 @@
       <c r="U79" s="67"/>
       <c r="W79" s="13"/>
     </row>
-    <row r="80" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="14">
       <c r="A80" s="13"/>
       <c r="C80" s="17"/>
       <c r="E80" s="108">
@@ -16056,7 +16075,7 @@
       <c r="U80" s="67"/>
       <c r="W80" s="13"/>
     </row>
-    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" ht="15.75" customHeight="1">
       <c r="A81" s="13"/>
       <c r="C81" s="17"/>
       <c r="E81" s="16" t="s">
@@ -16099,7 +16118,7 @@
       <c r="W81" s="13"/>
       <c r="AC81" s="150"/>
     </row>
-    <row r="82" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="14">
       <c r="A82" s="13"/>
       <c r="C82" s="17"/>
       <c r="E82" s="16" t="s">
@@ -16141,7 +16160,7 @@
       <c r="W82" s="13"/>
       <c r="AC82" s="150"/>
     </row>
-    <row r="83" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="14">
       <c r="A83" s="13"/>
       <c r="C83" s="17"/>
       <c r="E83" s="91" t="s">
@@ -16183,7 +16202,7 @@
       </c>
       <c r="W83" s="13"/>
     </row>
-    <row r="84" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" ht="15" customHeight="1">
       <c r="A84" s="13"/>
       <c r="C84" s="17"/>
       <c r="E84" s="235" t="s">
@@ -16246,7 +16265,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" ht="15" customHeight="1">
       <c r="A85" s="13"/>
       <c r="C85" s="17"/>
       <c r="E85" s="91" t="s">
@@ -16315,7 +16334,7 @@
         <v>46867.366500000004</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" ht="14">
       <c r="A86" s="13"/>
       <c r="C86" s="17"/>
       <c r="E86" s="96" t="s">
@@ -16385,7 +16404,7 @@
         <v>98499.258307297598</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" ht="14">
       <c r="A87" s="13"/>
       <c r="C87" s="17"/>
       <c r="E87" s="98" t="s">
@@ -16451,7 +16470,7 @@
         <v>1263.3811399850765</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" ht="14">
       <c r="A88" s="13"/>
       <c r="C88" s="17"/>
       <c r="E88" s="101" t="s">
@@ -16516,7 +16535,7 @@
         <v>1274.2146332604489</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" ht="15.75" customHeight="1">
       <c r="A89" s="13"/>
       <c r="C89" s="17"/>
       <c r="E89" s="305" t="s">
@@ -16568,7 +16587,7 @@
         <v>1285.1410237406571</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" ht="15.75" customHeight="1">
       <c r="A90" s="13"/>
       <c r="C90" s="17"/>
       <c r="E90" s="308" t="s">
@@ -16638,7 +16657,7 @@
         <v>1296.1611080192333</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" ht="14">
       <c r="A91" s="13"/>
       <c r="C91" s="17"/>
       <c r="E91" s="309" t="s">
@@ -16680,7 +16699,7 @@
       </c>
       <c r="W91" s="17"/>
     </row>
-    <row r="92" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" ht="14">
       <c r="A92" s="13"/>
       <c r="C92" s="17"/>
       <c r="E92" s="307" t="s">
@@ -16722,7 +16741,7 @@
       </c>
       <c r="W92" s="17"/>
     </row>
-    <row r="93" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="14">
       <c r="A93" s="13"/>
       <c r="C93" s="17"/>
       <c r="E93" s="67"/>
@@ -16744,7 +16763,7 @@
       <c r="U93" s="67"/>
       <c r="W93" s="17"/>
     </row>
-    <row r="94" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="14">
       <c r="A94" s="13"/>
       <c r="C94" s="17"/>
       <c r="E94" s="108">
@@ -16769,7 +16788,7 @@
       <c r="U94" s="67"/>
       <c r="W94" s="17"/>
     </row>
-    <row r="95" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" ht="14">
       <c r="A95" s="13"/>
       <c r="C95" s="17"/>
       <c r="E95" s="98" t="s">
@@ -16810,7 +16829,7 @@
       </c>
       <c r="W95" s="17"/>
     </row>
-    <row r="96" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="14">
       <c r="A96" s="13"/>
       <c r="C96" s="17"/>
       <c r="E96" s="98" t="s">
@@ -16851,7 +16870,7 @@
       </c>
       <c r="W96" s="17"/>
     </row>
-    <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="14">
       <c r="A97" s="13"/>
       <c r="C97" s="17"/>
       <c r="E97" s="16" t="s">
@@ -16893,7 +16912,7 @@
       </c>
       <c r="W97" s="17"/>
     </row>
-    <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="14">
       <c r="A98" s="13"/>
       <c r="C98" s="17"/>
       <c r="E98" s="91" t="s">
@@ -16935,7 +16954,7 @@
       </c>
       <c r="W98" s="17"/>
     </row>
-    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="14">
       <c r="A99" s="13"/>
       <c r="C99" s="17"/>
       <c r="E99" s="235" t="s">
@@ -16977,7 +16996,7 @@
       </c>
       <c r="W99" s="17"/>
     </row>
-    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="14">
       <c r="A100" s="13"/>
       <c r="C100" s="17"/>
       <c r="E100" s="91" t="s">
@@ -17019,7 +17038,7 @@
       </c>
       <c r="W100" s="17"/>
     </row>
-    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="14">
       <c r="A101" s="13"/>
       <c r="C101" s="17"/>
       <c r="E101" s="96" t="s">
@@ -17061,7 +17080,7 @@
       </c>
       <c r="W101" s="17"/>
     </row>
-    <row r="102" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="14">
       <c r="A102" s="13"/>
       <c r="C102" s="17"/>
       <c r="E102" s="96" t="s">
@@ -17098,7 +17117,7 @@
       </c>
       <c r="W102" s="17"/>
     </row>
-    <row r="103" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="14">
       <c r="A103" s="13"/>
       <c r="C103" s="17"/>
       <c r="E103" s="96"/>
@@ -17120,7 +17139,7 @@
       <c r="U103" s="90"/>
       <c r="W103" s="17"/>
     </row>
-    <row r="104" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="14">
       <c r="A104" s="13"/>
       <c r="C104" s="17"/>
       <c r="E104" s="305" t="s">
@@ -17144,7 +17163,7 @@
       <c r="U104" s="70"/>
       <c r="W104" s="17"/>
     </row>
-    <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="14">
       <c r="A105" s="13"/>
       <c r="C105" s="17"/>
       <c r="E105" s="308" t="s">
@@ -17186,7 +17205,7 @@
       </c>
       <c r="W105" s="17"/>
     </row>
-    <row r="106" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="14">
       <c r="A106" s="13"/>
       <c r="C106" s="17"/>
       <c r="E106" s="309" t="s">
@@ -17228,7 +17247,7 @@
       </c>
       <c r="W106" s="17"/>
     </row>
-    <row r="107" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="14">
       <c r="A107" s="13"/>
       <c r="C107" s="17"/>
       <c r="E107" s="307" t="s">
@@ -17270,7 +17289,7 @@
       </c>
       <c r="W107" s="17"/>
     </row>
-    <row r="108" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="10" customHeight="1">
       <c r="A108" s="13"/>
       <c r="C108" s="17"/>
       <c r="E108" s="104"/>
@@ -17292,7 +17311,7 @@
       <c r="U108" s="30"/>
       <c r="W108" s="17"/>
     </row>
-    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="15" customHeight="1">
       <c r="A109" s="13"/>
       <c r="C109" s="17"/>
       <c r="E109" s="108">
@@ -17317,7 +17336,7 @@
       <c r="U109" s="30"/>
       <c r="W109" s="17"/>
     </row>
-    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="15" customHeight="1">
       <c r="A110" s="13"/>
       <c r="C110" s="17"/>
       <c r="E110" s="98" t="s">
@@ -17358,7 +17377,7 @@
       </c>
       <c r="W110" s="17"/>
     </row>
-    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="15" customHeight="1">
       <c r="A111" s="13"/>
       <c r="C111" s="17"/>
       <c r="E111" s="98" t="s">
@@ -17399,7 +17418,7 @@
       </c>
       <c r="W111" s="17"/>
     </row>
-    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="15" customHeight="1">
       <c r="A112" s="13"/>
       <c r="C112" s="17"/>
       <c r="E112" s="16" t="s">
@@ -17441,7 +17460,7 @@
       </c>
       <c r="W112" s="17"/>
     </row>
-    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="15" customHeight="1">
       <c r="A113" s="13"/>
       <c r="C113" s="17"/>
       <c r="E113" s="91" t="s">
@@ -17483,7 +17502,7 @@
       </c>
       <c r="W113" s="17"/>
     </row>
-    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="15" customHeight="1">
       <c r="A114" s="13"/>
       <c r="C114" s="17"/>
       <c r="E114" s="235" t="s">
@@ -17525,7 +17544,7 @@
       </c>
       <c r="W114" s="17"/>
     </row>
-    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="15" customHeight="1">
       <c r="A115" s="13"/>
       <c r="C115" s="17"/>
       <c r="E115" s="91" t="s">
@@ -17567,7 +17586,7 @@
       </c>
       <c r="W115" s="17"/>
     </row>
-    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="15" customHeight="1">
       <c r="A116" s="13"/>
       <c r="C116" s="17"/>
       <c r="E116" s="96" t="s">
@@ -17609,7 +17628,7 @@
       </c>
       <c r="W116" s="17"/>
     </row>
-    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="15" customHeight="1">
       <c r="A117" s="13"/>
       <c r="C117" s="17"/>
       <c r="E117" s="96" t="s">
@@ -17646,7 +17665,7 @@
       </c>
       <c r="W117" s="17"/>
     </row>
-    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="15" customHeight="1">
       <c r="A118" s="13"/>
       <c r="C118" s="17"/>
       <c r="E118" s="305" t="s">
@@ -17670,7 +17689,7 @@
       <c r="U118" s="70"/>
       <c r="W118" s="17"/>
     </row>
-    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="15" customHeight="1">
       <c r="A119" s="13"/>
       <c r="C119" s="17"/>
       <c r="E119" s="308" t="s">
@@ -17712,7 +17731,7 @@
       </c>
       <c r="W119" s="17"/>
     </row>
-    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="15" customHeight="1">
       <c r="A120" s="13"/>
       <c r="C120" s="17"/>
       <c r="E120" s="309" t="s">
@@ -17754,7 +17773,7 @@
       </c>
       <c r="W120" s="17"/>
     </row>
-    <row r="121" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="19.5" customHeight="1">
       <c r="A121" s="13"/>
       <c r="C121" s="17"/>
       <c r="E121" s="307" t="s">
@@ -17796,7 +17815,7 @@
       </c>
       <c r="W121" s="17"/>
     </row>
-    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="15" customHeight="1">
       <c r="A122" s="13"/>
       <c r="C122" s="17"/>
       <c r="E122" s="67"/>
@@ -17818,7 +17837,7 @@
       <c r="U122" s="67"/>
       <c r="W122" s="17"/>
     </row>
-    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="15" customHeight="1">
       <c r="A123" s="13"/>
       <c r="C123" s="17"/>
       <c r="E123" s="108">
@@ -17843,7 +17862,7 @@
       <c r="U123" s="30"/>
       <c r="W123" s="17"/>
     </row>
-    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="15" customHeight="1">
       <c r="A124" s="13"/>
       <c r="C124" s="17"/>
       <c r="E124" s="98" t="s">
@@ -17884,7 +17903,7 @@
       </c>
       <c r="W124" s="17"/>
     </row>
-    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="15" customHeight="1">
       <c r="A125" s="13"/>
       <c r="C125" s="17"/>
       <c r="E125" s="98" t="s">
@@ -17925,7 +17944,7 @@
       </c>
       <c r="W125" s="17"/>
     </row>
-    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="15" customHeight="1">
       <c r="A126" s="13"/>
       <c r="C126" s="17"/>
       <c r="E126" s="16" t="s">
@@ -17967,7 +17986,7 @@
       </c>
       <c r="W126" s="17"/>
     </row>
-    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="15" customHeight="1">
       <c r="A127" s="13"/>
       <c r="C127" s="17"/>
       <c r="E127" s="91" t="s">
@@ -18009,7 +18028,7 @@
       </c>
       <c r="W127" s="17"/>
     </row>
-    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="15" customHeight="1">
       <c r="A128" s="13"/>
       <c r="C128" s="17"/>
       <c r="E128" s="235" t="s">
@@ -18051,7 +18070,7 @@
       </c>
       <c r="W128" s="17"/>
     </row>
-    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="15" customHeight="1">
       <c r="A129" s="13"/>
       <c r="C129" s="17"/>
       <c r="E129" s="91" t="s">
@@ -18093,7 +18112,7 @@
       </c>
       <c r="W129" s="17"/>
     </row>
-    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="15" customHeight="1">
       <c r="A130" s="13"/>
       <c r="C130" s="17"/>
       <c r="E130" s="96" t="s">
@@ -18135,7 +18154,7 @@
       </c>
       <c r="W130" s="17"/>
     </row>
-    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="15" customHeight="1">
       <c r="A131" s="13"/>
       <c r="C131" s="17"/>
       <c r="E131" s="96" t="s">
@@ -18172,7 +18191,7 @@
       </c>
       <c r="W131" s="17"/>
     </row>
-    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="15" customHeight="1">
       <c r="A132" s="13"/>
       <c r="C132" s="17"/>
       <c r="E132" s="305" t="s">
@@ -18196,7 +18215,7 @@
       <c r="U132" s="70"/>
       <c r="W132" s="17"/>
     </row>
-    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="15" customHeight="1">
       <c r="A133" s="13"/>
       <c r="C133" s="17"/>
       <c r="E133" s="308" t="s">
@@ -18238,7 +18257,7 @@
       </c>
       <c r="W133" s="17"/>
     </row>
-    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="15.75" customHeight="1">
       <c r="A134" s="13"/>
       <c r="C134" s="17"/>
       <c r="E134" s="309" t="s">
@@ -18280,7 +18299,7 @@
       </c>
       <c r="W134" s="17"/>
     </row>
-    <row r="135" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="14">
       <c r="A135" s="13"/>
       <c r="C135" s="17"/>
       <c r="E135" s="307" t="s">
@@ -18322,7 +18341,7 @@
       </c>
       <c r="W135" s="17"/>
     </row>
-    <row r="136" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="14">
       <c r="A136" s="13"/>
       <c r="C136" s="17"/>
       <c r="E136" s="67"/>
@@ -18344,7 +18363,7 @@
       <c r="U136" s="67"/>
       <c r="W136" s="17"/>
     </row>
-    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="15.75" customHeight="1">
       <c r="A137" s="13"/>
       <c r="C137" s="17"/>
       <c r="E137" s="108">
@@ -18369,7 +18388,7 @@
       <c r="U137" s="30"/>
       <c r="W137" s="17"/>
     </row>
-    <row r="138" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="14">
       <c r="A138" s="13"/>
       <c r="C138" s="17"/>
       <c r="E138" s="98" t="s">
@@ -18410,7 +18429,7 @@
       </c>
       <c r="W138" s="17"/>
     </row>
-    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="15.75" customHeight="1">
       <c r="A139" s="13"/>
       <c r="C139" s="17"/>
       <c r="E139" s="98" t="s">
@@ -18451,7 +18470,7 @@
       </c>
       <c r="W139" s="17"/>
     </row>
-    <row r="140" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="14">
       <c r="C140" s="17"/>
       <c r="E140" s="16" t="s">
         <v>54</v>
@@ -18492,7 +18511,7 @@
       </c>
       <c r="W140" s="17"/>
     </row>
-    <row r="141" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="14">
       <c r="C141" s="17"/>
       <c r="E141" s="91" t="s">
         <v>58</v>
@@ -18533,7 +18552,7 @@
       </c>
       <c r="W141" s="17"/>
     </row>
-    <row r="142" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="14">
       <c r="C142" s="17"/>
       <c r="E142" s="235" t="s">
         <v>49</v>
@@ -18574,7 +18593,7 @@
       </c>
       <c r="W142" s="17"/>
     </row>
-    <row r="143" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="14">
       <c r="C143" s="17"/>
       <c r="E143" s="91" t="s">
         <v>33</v>
@@ -18615,7 +18634,7 @@
       </c>
       <c r="W143" s="17"/>
     </row>
-    <row r="144" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="14">
       <c r="C144" s="17"/>
       <c r="E144" s="96" t="s">
         <v>34</v>
@@ -18656,7 +18675,7 @@
       </c>
       <c r="W144" s="17"/>
     </row>
-    <row r="145" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:23" ht="14">
       <c r="C145" s="17"/>
       <c r="E145" s="96" t="s">
         <v>55</v>
@@ -18692,7 +18711,7 @@
       </c>
       <c r="W145" s="17"/>
     </row>
-    <row r="146" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:23" ht="14">
       <c r="C146" s="17"/>
       <c r="E146" s="305" t="s">
         <v>59</v>
@@ -18715,7 +18734,7 @@
       <c r="U146" s="70"/>
       <c r="W146" s="17"/>
     </row>
-    <row r="147" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:23" ht="14">
       <c r="C147" s="17"/>
       <c r="E147" s="308" t="s">
         <v>0</v>
@@ -18756,7 +18775,7 @@
       </c>
       <c r="W147" s="17"/>
     </row>
-    <row r="148" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:23" ht="14">
       <c r="C148" s="17"/>
       <c r="E148" s="309" t="s">
         <v>47</v>
@@ -18797,7 +18816,7 @@
       </c>
       <c r="W148" s="17"/>
     </row>
-    <row r="149" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:23" ht="14">
       <c r="C149" s="17"/>
       <c r="E149" s="307" t="s">
         <v>16</v>
@@ -18838,7 +18857,7 @@
       </c>
       <c r="W149" s="17"/>
     </row>
-    <row r="150" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:23" ht="14">
       <c r="C150" s="29"/>
       <c r="E150" s="67"/>
       <c r="F150" s="13"/>
@@ -18859,7 +18878,7 @@
       <c r="U150" s="67"/>
       <c r="W150" s="17"/>
     </row>
-    <row r="151" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:23" ht="14">
       <c r="C151" s="29"/>
       <c r="E151" s="317" t="s">
         <v>106</v>
@@ -18882,7 +18901,7 @@
       <c r="U151" s="70"/>
       <c r="W151" s="17"/>
     </row>
-    <row r="152" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:23" ht="14">
       <c r="C152" s="29"/>
       <c r="E152" s="314" t="s">
         <v>56</v>
@@ -18923,7 +18942,7 @@
       </c>
       <c r="W152" s="17"/>
     </row>
-    <row r="153" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:23" ht="14">
       <c r="C153" s="29"/>
       <c r="E153" s="315" t="s">
         <v>57</v>
@@ -18964,7 +18983,7 @@
       </c>
       <c r="W153" s="17"/>
     </row>
-    <row r="154" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:23" ht="14">
       <c r="C154" s="29"/>
       <c r="D154" s="17"/>
       <c r="E154" s="136"/>
@@ -18986,7 +19005,7 @@
       <c r="U154" s="138"/>
       <c r="W154" s="17"/>
     </row>
-    <row r="155" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:23" ht="14">
       <c r="C155" s="29"/>
       <c r="D155" s="29" t="s">
         <v>201</v>
@@ -19008,7 +19027,7 @@
       <c r="U155" s="58"/>
       <c r="W155" s="17"/>
     </row>
-    <row r="156" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:23" ht="14">
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
       <c r="E156" s="65"/>
@@ -19019,7 +19038,7 @@
       <c r="U156" s="58"/>
       <c r="W156" s="17"/>
     </row>
-    <row r="157" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:23" ht="14">
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
       <c r="E157" s="419" t="s">
@@ -19043,7 +19062,7 @@
       <c r="U157" s="109"/>
       <c r="W157" s="17"/>
     </row>
-    <row r="158" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:23" ht="14">
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
       <c r="E158" s="421" t="s">
@@ -19085,7 +19104,7 @@
       </c>
       <c r="W158" s="17"/>
     </row>
-    <row r="159" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:23" ht="14">
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="421" t="s">
@@ -19127,7 +19146,7 @@
       </c>
       <c r="W159" s="17"/>
     </row>
-    <row r="160" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:23" ht="14">
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
       <c r="E160" s="421" t="s">
@@ -19169,7 +19188,7 @@
       </c>
       <c r="W160" s="29"/>
     </row>
-    <row r="161" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:23" ht="14">
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
       <c r="E161" s="307" t="s">
@@ -19211,7 +19230,7 @@
       </c>
       <c r="W161" s="29"/>
     </row>
-    <row r="162" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:23" ht="14">
       <c r="C162" s="29"/>
       <c r="D162" s="29"/>
       <c r="E162" s="67"/>
@@ -19233,7 +19252,7 @@
       <c r="U162" s="67"/>
       <c r="W162" s="29"/>
     </row>
-    <row r="163" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:23" ht="14">
       <c r="C163" s="29"/>
       <c r="D163" s="29"/>
       <c r="E163" s="108">
@@ -19258,7 +19277,7 @@
       <c r="U163" s="67"/>
       <c r="W163" s="29"/>
     </row>
-    <row r="164" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:23" ht="14">
       <c r="C164" s="29"/>
       <c r="D164" s="29"/>
       <c r="E164" s="16" t="s">
@@ -19300,7 +19319,7 @@
       </c>
       <c r="W164" s="29"/>
     </row>
-    <row r="165" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:23" ht="14">
       <c r="C165" s="29"/>
       <c r="D165" s="29"/>
       <c r="E165" s="16" t="s">
@@ -19341,7 +19360,7 @@
       </c>
       <c r="W165" s="29"/>
     </row>
-    <row r="166" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:23" ht="14">
       <c r="C166" s="29"/>
       <c r="D166" s="29"/>
       <c r="E166" s="91" t="s">
@@ -19383,7 +19402,7 @@
       </c>
       <c r="W166" s="29"/>
     </row>
-    <row r="167" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:23" ht="14">
       <c r="C167" s="29"/>
       <c r="D167" s="29"/>
       <c r="E167" s="235" t="s">
@@ -19425,7 +19444,7 @@
       </c>
       <c r="W167" s="29"/>
     </row>
-    <row r="168" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:23" ht="14">
       <c r="C168" s="29"/>
       <c r="D168" s="29"/>
       <c r="E168" s="91" t="s">
@@ -19467,7 +19486,7 @@
       </c>
       <c r="W168" s="29"/>
     </row>
-    <row r="169" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:23" ht="14">
       <c r="E169" s="96" t="s">
         <v>34</v>
       </c>
@@ -19507,7 +19526,7 @@
       </c>
       <c r="W169" s="29"/>
     </row>
-    <row r="170" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:23" ht="14">
       <c r="E170" s="98" t="s">
         <v>50</v>
       </c>
@@ -19543,7 +19562,7 @@
       </c>
       <c r="W170" s="29"/>
     </row>
-    <row r="171" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:23" ht="14">
       <c r="E171" s="101" t="s">
         <v>37</v>
       </c>
@@ -19578,7 +19597,7 @@
       </c>
       <c r="W171" s="29"/>
     </row>
-    <row r="172" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:23" ht="14">
       <c r="E172" s="419" t="s">
         <v>59</v>
       </c>
@@ -19600,7 +19619,7 @@
       <c r="U172" s="70"/>
       <c r="W172" s="29"/>
     </row>
-    <row r="173" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:23" ht="14">
       <c r="E173" s="426" t="s">
         <v>0</v>
       </c>
@@ -19640,7 +19659,7 @@
       </c>
       <c r="W173" s="29"/>
     </row>
-    <row r="174" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:23" ht="14">
       <c r="E174" s="427" t="s">
         <v>47</v>
       </c>
@@ -19680,7 +19699,7 @@
       </c>
       <c r="W174" s="29"/>
     </row>
-    <row r="175" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:23" ht="14">
       <c r="E175" s="307" t="s">
         <v>16</v>
       </c>
@@ -19720,7 +19739,7 @@
       </c>
       <c r="W175" s="29"/>
     </row>
-    <row r="176" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:23" ht="14">
       <c r="E176" s="67"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
@@ -19740,7 +19759,7 @@
       <c r="U176" s="67"/>
       <c r="W176" s="29"/>
     </row>
-    <row r="177" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:23" ht="14">
       <c r="E177" s="108">
         <f>E163+1</f>
         <v>2</v>
@@ -19763,7 +19782,7 @@
       <c r="U177" s="67"/>
       <c r="W177" s="29"/>
     </row>
-    <row r="178" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:23" ht="14">
       <c r="E178" s="98" t="s">
         <v>48</v>
       </c>
@@ -19802,7 +19821,7 @@
       </c>
       <c r="W178" s="29"/>
     </row>
-    <row r="179" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:23" ht="14">
       <c r="E179" s="98" t="s">
         <v>207</v>
       </c>
@@ -19840,7 +19859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:23" ht="14">
       <c r="E180" s="16" t="s">
         <v>54</v>
       </c>
@@ -19879,7 +19898,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="181" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:23" ht="14">
       <c r="E181" s="91" t="s">
         <v>58</v>
       </c>
@@ -19918,7 +19937,7 @@
         <v>5990.4881250000008</v>
       </c>
     </row>
-    <row r="182" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:23" ht="14">
       <c r="E182" s="235" t="s">
         <v>49</v>
       </c>
@@ -19957,7 +19976,7 @@
         <v>990.48812500000076</v>
       </c>
     </row>
-    <row r="183" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:23" ht="14">
       <c r="E183" s="91" t="s">
         <v>33</v>
       </c>
@@ -19996,7 +20015,7 @@
         <v>311.01327125000023</v>
       </c>
     </row>
-    <row r="184" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:23" ht="14">
       <c r="E184" s="96" t="s">
         <v>34</v>
       </c>
@@ -20035,7 +20054,7 @@
         <v>679.47485375000053</v>
       </c>
     </row>
-    <row r="185" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:23" ht="14">
       <c r="E185" s="96" t="s">
         <v>55</v>
       </c>
@@ -20069,7 +20088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:23" ht="14">
       <c r="E186" s="96"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
@@ -20088,7 +20107,7 @@
       <c r="T186" s="90"/>
       <c r="U186" s="90"/>
     </row>
-    <row r="187" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:23" ht="14">
       <c r="E187" s="419" t="s">
         <v>59</v>
       </c>
@@ -20109,7 +20128,7 @@
       <c r="T187" s="70"/>
       <c r="U187" s="70"/>
     </row>
-    <row r="188" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:23" ht="14">
       <c r="E188" s="426" t="s">
         <v>0</v>
       </c>
@@ -20148,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:23" ht="14">
       <c r="E189" s="427" t="s">
         <v>47</v>
       </c>
@@ -20187,7 +20206,7 @@
         <v>479918.52485375007</v>
       </c>
     </row>
-    <row r="190" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:23" ht="14">
       <c r="E190" s="307" t="s">
         <v>16</v>
       </c>
@@ -20226,7 +20245,7 @@
         <v>479918.52485375007</v>
       </c>
     </row>
-    <row r="191" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:23" ht="14">
       <c r="E191" s="104"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
@@ -20245,7 +20264,7 @@
       <c r="T191" s="30"/>
       <c r="U191" s="30"/>
     </row>
-    <row r="192" spans="5:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:23" ht="14">
       <c r="E192" s="108">
         <f>E177+1</f>
         <v>3</v>
@@ -20267,7 +20286,7 @@
       <c r="T192" s="30"/>
       <c r="U192" s="30"/>
     </row>
-    <row r="193" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:21" ht="14">
       <c r="E193" s="98" t="s">
         <v>48</v>
       </c>
@@ -20305,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:21" ht="14">
       <c r="E194" s="98" t="s">
         <v>207</v>
       </c>
@@ -20343,7 +20362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:21" ht="14">
       <c r="E195" s="16" t="s">
         <v>54</v>
       </c>
@@ -20382,7 +20401,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="196" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:21" ht="14">
       <c r="E196" s="91" t="s">
         <v>58</v>
       </c>
@@ -20421,7 +20440,7 @@
         <v>5998.9815606718767</v>
       </c>
     </row>
-    <row r="197" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:21" ht="14">
       <c r="E197" s="235" t="s">
         <v>49</v>
       </c>
@@ -20460,7 +20479,7 @@
         <v>998.98156067187665</v>
       </c>
     </row>
-    <row r="198" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:21" ht="14">
       <c r="E198" s="91" t="s">
         <v>33</v>
       </c>
@@ -20499,7 +20518,7 @@
         <v>313.68021005096927</v>
       </c>
     </row>
-    <row r="199" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:21" ht="14">
       <c r="E199" s="96" t="s">
         <v>34</v>
       </c>
@@ -20538,7 +20557,7 @@
         <v>685.30135062090744</v>
       </c>
     </row>
-    <row r="200" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:21" ht="14">
       <c r="E200" s="96" t="s">
         <v>55</v>
       </c>
@@ -20572,7 +20591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:21" ht="14">
       <c r="E201" s="419" t="s">
         <v>59</v>
       </c>
@@ -20593,7 +20612,7 @@
       <c r="T201" s="70"/>
       <c r="U201" s="70"/>
     </row>
-    <row r="202" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:21" ht="14">
       <c r="E202" s="426" t="s">
         <v>0</v>
       </c>
@@ -20632,7 +20651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:21" ht="14">
       <c r="E203" s="427" t="s">
         <v>47</v>
       </c>
@@ -20671,7 +20690,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="204" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:21" ht="14">
       <c r="E204" s="307" t="s">
         <v>16</v>
       </c>
@@ -20710,7 +20729,7 @@
         <v>480603.826204371</v>
       </c>
     </row>
-    <row r="205" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:21" ht="14">
       <c r="E205" s="67"/>
       <c r="F205" s="13"/>
       <c r="G205" s="13"/>
@@ -20729,7 +20748,7 @@
       <c r="T205" s="67"/>
       <c r="U205" s="67"/>
     </row>
-    <row r="206" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:21" ht="14">
       <c r="E206" s="108">
         <f>E192+1</f>
         <v>4</v>
@@ -20751,7 +20770,7 @@
       <c r="T206" s="30"/>
       <c r="U206" s="30"/>
     </row>
-    <row r="207" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:21" ht="14">
       <c r="E207" s="98" t="s">
         <v>48</v>
       </c>
@@ -20789,7 +20808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:21" ht="14">
       <c r="E208" s="98" t="s">
         <v>207</v>
       </c>
@@ -20827,7 +20846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:21" ht="14">
       <c r="E209" s="16" t="s">
         <v>54</v>
       </c>
@@ -20866,7 +20885,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="210" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:21" ht="14">
       <c r="E210" s="91" t="s">
         <v>58</v>
       </c>
@@ -20905,7 +20924,7 @@
         <v>6007.5478275546375</v>
       </c>
     </row>
-    <row r="211" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:21" ht="14">
       <c r="E211" s="235" t="s">
         <v>49</v>
       </c>
@@ -20944,7 +20963,7 @@
         <v>1007.5478275546375</v>
       </c>
     </row>
-    <row r="212" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:21" ht="14">
       <c r="E212" s="91" t="s">
         <v>33</v>
       </c>
@@ -20983,7 +21002,7 @@
         <v>316.3700178521562</v>
       </c>
     </row>
-    <row r="213" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:21" ht="14">
       <c r="E213" s="96" t="s">
         <v>34</v>
       </c>
@@ -21022,7 +21041,7 @@
         <v>691.17780970248123</v>
       </c>
     </row>
-    <row r="214" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:21" ht="14">
       <c r="E214" s="96" t="s">
         <v>55</v>
       </c>
@@ -21056,7 +21075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:21" ht="14">
       <c r="E215" s="419" t="s">
         <v>59</v>
       </c>
@@ -21077,7 +21096,7 @@
       <c r="T215" s="70"/>
       <c r="U215" s="70"/>
     </row>
-    <row r="216" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:21" ht="14">
       <c r="E216" s="426" t="s">
         <v>0</v>
       </c>
@@ -21116,7 +21135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:21" ht="14">
       <c r="E217" s="427" t="s">
         <v>47</v>
       </c>
@@ -21155,7 +21174,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="218" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:21" ht="14">
       <c r="E218" s="307" t="s">
         <v>16</v>
       </c>
@@ -21194,7 +21213,7 @@
         <v>481295.00401407346</v>
       </c>
     </row>
-    <row r="219" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:21" ht="14">
       <c r="E219" s="67"/>
       <c r="F219" s="13"/>
       <c r="G219" s="13"/>
@@ -21213,7 +21232,7 @@
       <c r="T219" s="67"/>
       <c r="U219" s="67"/>
     </row>
-    <row r="220" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:21" ht="14">
       <c r="E220" s="108">
         <f>E206+1</f>
         <v>5</v>
@@ -21235,7 +21254,7 @@
       <c r="T220" s="30"/>
       <c r="U220" s="30"/>
     </row>
-    <row r="221" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:21" ht="14">
       <c r="E221" s="98" t="s">
         <v>48</v>
       </c>
@@ -21273,7 +21292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:21" ht="14">
       <c r="E222" s="98" t="s">
         <v>207</v>
       </c>
@@ -21311,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:21" ht="14">
       <c r="E223" s="16" t="s">
         <v>54</v>
       </c>
@@ -21350,7 +21369,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="224" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:21" ht="14">
       <c r="E224" s="91" t="s">
         <v>58</v>
       </c>
@@ -21389,7 +21408,7 @@
         <v>6016.1875501759187</v>
       </c>
     </row>
-    <row r="225" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:21" ht="14">
       <c r="E225" s="235" t="s">
         <v>49</v>
       </c>
@@ -21428,7 +21447,7 @@
         <v>1016.1875501759187</v>
       </c>
     </row>
-    <row r="226" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:21" ht="14">
       <c r="E226" s="91" t="s">
         <v>33</v>
       </c>
@@ -21467,7 +21486,7 @@
         <v>319.08289075523845</v>
       </c>
     </row>
-    <row r="227" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:21" ht="14">
       <c r="E227" s="96" t="s">
         <v>34</v>
       </c>
@@ -21506,7 +21525,7 @@
         <v>697.10465942068026</v>
       </c>
     </row>
-    <row r="228" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:21" ht="14">
       <c r="E228" s="96" t="s">
         <v>55</v>
       </c>
@@ -21540,7 +21559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:21" ht="14">
       <c r="E229" s="419" t="s">
         <v>59</v>
       </c>
@@ -21561,7 +21580,7 @@
       <c r="T229" s="70"/>
       <c r="U229" s="70"/>
     </row>
-    <row r="230" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:21" ht="14">
       <c r="E230" s="426" t="s">
         <v>0</v>
       </c>
@@ -21600,7 +21619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:21" ht="14">
       <c r="E231" s="427" t="s">
         <v>47</v>
       </c>
@@ -21639,7 +21658,7 @@
         <v>481992.10867349413</v>
       </c>
     </row>
-    <row r="232" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:21" ht="14">
       <c r="E232" s="307" t="s">
         <v>16</v>
       </c>
@@ -21678,7 +21697,7 @@
         <v>481992.10867349413</v>
       </c>
     </row>
-    <row r="233" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:21" ht="14">
       <c r="E233" s="67"/>
       <c r="F233" s="13"/>
       <c r="G233" s="13"/>
@@ -21697,7 +21716,7 @@
       <c r="T233" s="67"/>
       <c r="U233" s="67"/>
     </row>
-    <row r="234" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:21" ht="14">
       <c r="E234" s="317" t="s">
         <v>106</v>
       </c>
@@ -21718,7 +21737,7 @@
       <c r="T234" s="70"/>
       <c r="U234" s="70"/>
     </row>
-    <row r="235" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:21" ht="14">
       <c r="E235" s="314" t="s">
         <v>56</v>
       </c>
@@ -21757,7 +21776,7 @@
         <v>-32695.391326505865</v>
       </c>
     </row>
-    <row r="236" spans="5:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:21" ht="14">
       <c r="E236" s="315" t="s">
         <v>57</v>
       </c>
@@ -21848,12 +21867,17 @@
   </rowBreaks>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:Z60"/>
@@ -21862,35 +21886,35 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="11" style="182" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="172" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="184" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="182" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="183" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" style="172" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="183" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="172" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="172"/>
-    <col min="14" max="14" width="11.42578125" style="183" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="172"/>
-    <col min="16" max="16" width="10.140625" style="172" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="172" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="172" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="172" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="172"/>
+    <col min="3" max="3" width="11.5" style="172" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="184" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="182" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="183" customWidth="1"/>
+    <col min="7" max="9" width="11.5" style="172" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="183" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="172" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="172"/>
+    <col min="14" max="14" width="11.5" style="183" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="172"/>
+    <col min="16" max="16" width="10.1640625" style="172" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="172" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="172" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" style="172" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="172"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="J2" s="172"/>
       <c r="N2" s="172"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="J3" s="172"/>
       <c r="N3" s="172"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="349"/>
       <c r="B4" s="233"/>
       <c r="C4" s="197"/>
@@ -21920,7 +21944,7 @@
       <c r="L4" s="206"/>
       <c r="N4" s="172"/>
     </row>
-    <row r="5" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="29" thickBot="1">
       <c r="A5" s="351" t="s">
         <v>260</v>
       </c>
@@ -21957,7 +21981,7 @@
       <c r="L5" s="200"/>
       <c r="N5" s="172"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15" thickBot="1">
       <c r="A6" s="352" t="s">
         <v>216</v>
       </c>
@@ -21999,7 +22023,7 @@
       <c r="N6" s="172"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" thickBot="1">
       <c r="A7" s="353" t="s">
         <v>217</v>
       </c>
@@ -22041,7 +22065,7 @@
       <c r="N7" s="172"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15" thickBot="1">
       <c r="A8" s="353" t="s">
         <v>218</v>
       </c>
@@ -22085,7 +22109,7 @@
       <c r="N8" s="172"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15" thickBot="1">
       <c r="A9" s="353" t="s">
         <v>219</v>
       </c>
@@ -22127,7 +22151,7 @@
       <c r="N9" s="172"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" thickBot="1">
       <c r="A10" s="353" t="s">
         <v>220</v>
       </c>
@@ -22171,7 +22195,7 @@
       <c r="N10" s="172"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1">
       <c r="A11" s="353" t="s">
         <v>221</v>
       </c>
@@ -22213,7 +22237,7 @@
       <c r="N11" s="172"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" thickBot="1">
       <c r="A12" s="353" t="s">
         <v>222</v>
       </c>
@@ -22255,7 +22279,7 @@
       <c r="N12" s="172"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" thickBot="1">
       <c r="A13" s="353" t="s">
         <v>223</v>
       </c>
@@ -22297,7 +22321,7 @@
       <c r="N13" s="172"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15" thickBot="1">
       <c r="A14" s="353" t="s">
         <v>224</v>
       </c>
@@ -22339,7 +22363,7 @@
       <c r="N14" s="172"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" thickBot="1">
       <c r="A15" s="353" t="s">
         <v>225</v>
       </c>
@@ -22381,7 +22405,7 @@
       <c r="N15" s="172"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="354" t="s">
         <v>226</v>
       </c>
@@ -22423,7 +22447,7 @@
       <c r="N16" s="172"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="172"/>
       <c r="B17" s="172"/>
       <c r="D17" s="172"/>
@@ -22432,7 +22456,7 @@
       <c r="J17" s="172"/>
       <c r="N17" s="172"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="172"/>
       <c r="B18" s="172"/>
       <c r="D18" s="172"/>
@@ -22441,7 +22465,7 @@
       <c r="J18" s="172"/>
       <c r="N18" s="172"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="172"/>
       <c r="B19" s="172"/>
       <c r="D19" s="172"/>
@@ -22450,7 +22474,7 @@
       <c r="J19" s="172"/>
       <c r="N19" s="172"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="172"/>
       <c r="B20" s="172"/>
       <c r="D20" s="172"/>
@@ -22459,7 +22483,7 @@
       <c r="J20" s="172"/>
       <c r="N20" s="172"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="172"/>
       <c r="B21" s="172"/>
       <c r="D21" s="172"/>
@@ -22467,7 +22491,7 @@
       <c r="J21" s="172"/>
       <c r="N21" s="172"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="172"/>
       <c r="B22" s="172"/>
       <c r="D22" s="172"/>
@@ -22476,7 +22500,7 @@
       <c r="J22" s="172"/>
       <c r="N22" s="172"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="172"/>
       <c r="B23" s="172"/>
       <c r="D23" s="172"/>
@@ -22486,7 +22510,7 @@
       <c r="J23" s="172"/>
       <c r="N23" s="172"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="172"/>
       <c r="B24" s="172"/>
       <c r="D24" s="172"/>
@@ -22495,7 +22519,7 @@
       <c r="J24" s="172"/>
       <c r="N24" s="172"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="172"/>
       <c r="B25" s="172"/>
       <c r="D25" s="172"/>
@@ -22504,7 +22528,7 @@
       <c r="J25" s="172"/>
       <c r="N25" s="172"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="172"/>
       <c r="B26" s="172"/>
       <c r="D26" s="172"/>
@@ -22513,7 +22537,7 @@
       <c r="J26" s="172"/>
       <c r="N26" s="172"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="172"/>
       <c r="B27" s="172"/>
       <c r="D27" s="172"/>
@@ -22523,7 +22547,7 @@
       <c r="J27" s="172"/>
       <c r="N27" s="172"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="172"/>
       <c r="B28" s="172"/>
       <c r="D28" s="172"/>
@@ -22533,7 +22557,7 @@
       <c r="J28" s="172"/>
       <c r="N28" s="172"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="172"/>
       <c r="B29" s="172"/>
       <c r="D29" s="172"/>
@@ -22542,7 +22566,7 @@
       <c r="J29" s="172"/>
       <c r="N29" s="172"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="172"/>
       <c r="B30" s="172"/>
       <c r="D30" s="172"/>
@@ -22551,85 +22575,90 @@
       <c r="J30" s="172"/>
       <c r="N30" s="172"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="D31" s="172"/>
       <c r="E31" s="172"/>
       <c r="F31" s="172"/>
       <c r="J31" s="172"/>
       <c r="N31" s="172"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="D32" s="172"/>
       <c r="E32" s="172"/>
       <c r="F32" s="172"/>
       <c r="J32" s="172"/>
       <c r="N32" s="172"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:14">
       <c r="D33" s="172"/>
       <c r="E33" s="172"/>
       <c r="F33" s="172"/>
       <c r="J33" s="172"/>
       <c r="N33" s="172"/>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:14">
       <c r="D34" s="172"/>
       <c r="E34" s="172"/>
       <c r="F34" s="172"/>
       <c r="J34" s="172"/>
       <c r="N34" s="172"/>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:14">
       <c r="D35" s="172"/>
       <c r="E35" s="172"/>
       <c r="F35" s="172"/>
       <c r="J35" s="172"/>
       <c r="N35" s="172"/>
     </row>
-    <row r="54" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="25:26">
       <c r="Z54" s="183"/>
     </row>
-    <row r="55" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="25:26">
       <c r="Z55" s="183"/>
     </row>
-    <row r="56" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="25:26">
       <c r="Z56" s="183"/>
     </row>
-    <row r="57" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="25:26">
       <c r="Z57" s="183"/>
     </row>
-    <row r="58" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="25:26">
       <c r="Z58" s="183"/>
     </row>
-    <row r="59" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="25:26">
       <c r="Z59" s="183"/>
     </row>
-    <row r="60" spans="25:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="25:26">
       <c r="Y60" s="183"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="13" max="13" width="8.85546875" style="232"/>
-    <col min="14" max="14" width="8.85546875" style="232" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="232"/>
+    <col min="13" max="13" width="8.83203125" style="232"/>
+    <col min="14" max="14" width="8.83203125" style="232" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="232"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -22667,7 +22696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1948</v>
       </c>
@@ -22708,7 +22737,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1949</v>
       </c>
@@ -22746,7 +22775,7 @@
         <v>26.744649883485</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -22784,7 +22813,7 @@
         <v>82.3976439431285</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1951</v>
       </c>
@@ -22822,7 +22851,7 @@
         <v>119.86075100011701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1952</v>
       </c>
@@ -22860,7 +22889,7 @@
         <v>103.8317861764</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>1953</v>
       </c>
@@ -22898,7 +22927,7 @@
         <v>102.31199040246401</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1954</v>
       </c>
@@ -22936,7 +22965,7 @@
         <v>109.14097992220699</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>1955</v>
       </c>
@@ -22974,7 +23003,7 @@
         <v>153.83773609233</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>1956</v>
       </c>
@@ -23012,7 +23041,7 @@
         <v>188.215488528641</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>1957</v>
       </c>
@@ -23050,7 +23079,7 @@
         <v>58.910948991473703</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>1958</v>
       </c>
@@ -23088,7 +23117,7 @@
         <v>169.68893941527401</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>1959</v>
       </c>
@@ -23126,7 +23155,7 @@
         <v>1.51177588074404</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1960</v>
       </c>
@@ -23164,7 +23193,7 @@
         <v>55.845242391120699</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>1961</v>
       </c>
@@ -23202,7 +23231,7 @@
         <v>47.933784057507602</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>1962</v>
       </c>
@@ -23240,7 +23269,7 @@
         <v>57.2462506324798</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>1963</v>
       </c>
@@ -23278,7 +23307,7 @@
         <v>41.176404840271303</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>1964</v>
       </c>
@@ -23316,7 +23345,7 @@
         <v>9.7091335926118791</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>1965</v>
       </c>
@@ -23354,7 +23383,7 @@
         <v>19.4817657046876</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>1966</v>
       </c>
@@ -23392,7 +23421,7 @@
         <v>38.3175562144339</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>1967</v>
       </c>
@@ -23430,7 +23459,7 @@
         <v>87.966329851446702</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>1968</v>
       </c>
@@ -23468,7 +23497,7 @@
         <v>62.7268214187106</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>1969</v>
       </c>
@@ -23506,7 +23535,7 @@
         <v>21.244167883060101</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>1970</v>
       </c>
@@ -23544,7 +23573,7 @@
         <v>55.344402990449801</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>1971</v>
       </c>
@@ -23582,7 +23611,7 @@
         <v>6.8948510452181599</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>1972</v>
       </c>
@@ -23620,7 +23649,7 @@
         <v>149.41457106000999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>1973</v>
       </c>
@@ -23658,7 +23687,7 @@
         <v>216.626025789648</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>1974</v>
       </c>
@@ -23696,7 +23725,7 @@
         <v>42.033239563202002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>1975</v>
       </c>
@@ -23734,7 +23763,7 @@
         <v>116.052640425951</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>1976</v>
       </c>
@@ -23772,7 +23801,7 @@
         <v>17.195215301437401</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>1977</v>
       </c>
@@ -23810,7 +23839,7 @@
         <v>38.191890055444198</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>1978</v>
       </c>
@@ -23848,7 +23877,7 @@
         <v>158.46371838925799</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>1979</v>
       </c>
@@ -23886,7 +23915,7 @@
         <v>303.51896800302001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>1980</v>
       </c>
@@ -23924,7 +23953,7 @@
         <v>36.730775148612402</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>1981</v>
       </c>
@@ -23962,7 +23991,7 @@
         <v>50.165062666236302</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>1982</v>
       </c>
@@ -24000,7 +24029,7 @@
         <v>75.031773969221305</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>1983</v>
       </c>
@@ -24038,7 +24067,7 @@
         <v>174.77937601018601</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>1984</v>
       </c>
@@ -24076,7 +24105,7 @@
         <v>35.0353282645627</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>1985</v>
       </c>
@@ -24114,7 +24143,7 @@
         <v>211.74015426797001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>1986</v>
       </c>
@@ -24152,7 +24181,7 @@
         <v>121.11527821163</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>1987</v>
       </c>
@@ -24190,7 +24219,7 @@
         <v>217.559087456246</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>1988</v>
       </c>
@@ -24228,7 +24257,7 @@
         <v>78.156397024875901</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>1989</v>
       </c>
@@ -24266,7 +24295,7 @@
         <v>55.616847982418101</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>1990</v>
       </c>
@@ -24304,7 +24333,7 @@
         <v>94.207571659863703</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>1991</v>
       </c>
@@ -24342,7 +24371,7 @@
         <v>136.926802434563</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>1992</v>
       </c>
@@ -24380,7 +24409,7 @@
         <v>152.13244153303901</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>1993</v>
       </c>
@@ -24418,7 +24447,7 @@
         <v>138.85518236750099</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>1994</v>
       </c>
@@ -24456,7 +24485,7 @@
         <v>72.158887133900095</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>1995</v>
       </c>
@@ -24494,7 +24523,7 @@
         <v>77.2776218922711</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>1996</v>
       </c>
@@ -24532,7 +24561,7 @@
         <v>56.761122004347499</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>1997</v>
       </c>
@@ -24570,7 +24599,7 @@
         <v>56.410364063708798</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>1998</v>
       </c>
@@ -24608,7 +24637,7 @@
         <v>127.949558427176</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>1999</v>
       </c>
@@ -24646,7 +24675,7 @@
         <v>32.956408196693403</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>2000</v>
       </c>
@@ -24684,7 +24713,7 @@
         <v>94.902017279650195</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>2001</v>
       </c>
@@ -24722,7 +24751,7 @@
         <v>57.104443655591098</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>2002</v>
       </c>
@@ -24760,7 +24789,7 @@
         <v>52.125295740467799</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>2003</v>
       </c>
@@ -24798,7 +24827,7 @@
         <v>71.608814028954896</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>2004</v>
       </c>
@@ -24836,7 +24865,7 @@
         <v>143.52897573657799</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>2005</v>
       </c>
@@ -24874,7 +24903,7 @@
         <v>44.816531791766998</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>2006</v>
       </c>
@@ -24912,7 +24941,7 @@
         <v>135.21883314929201</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>2007</v>
       </c>
@@ -24950,7 +24979,7 @@
         <v>136.81885662235601</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>2008</v>
       </c>
@@ -24988,7 +25017,7 @@
         <v>96.545805036287106</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>2009</v>
       </c>
@@ -25026,7 +25055,7 @@
         <v>167.739453717294</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>2010</v>
       </c>
@@ -25064,7 +25093,7 @@
         <v>209.23408233309399</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -25102,7 +25131,7 @@
         <v>194.03938336230601</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>2012</v>
       </c>
@@ -25140,7 +25169,7 @@
         <v>95.641943462574801</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>2013</v>
       </c>
@@ -25178,7 +25207,7 @@
         <v>79.589355470485401</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>2014</v>
       </c>
@@ -25216,7 +25245,7 @@
         <v>250.433376814659</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -25256,5 +25285,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>